--- a/data/180_P_features_case.xlsx
+++ b/data/180_P_features_case.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R78"/>
+  <dimension ref="A1:R64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,4314 +528,3530 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.9929084261133604</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.100186842417654</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0003009564477100203</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>7.700918521205058e-05</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-7.569405207489879e-07</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02022944357287449</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.925901625311234e-06</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>7.620588195041111e-05</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.05348713401871846</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>-3.760569958280231e-06</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>-1.487450827224378e-05</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.0001945681486761352</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>-1.800652030964163e-06</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>-4.505112564015579e-06</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.998955938076361e-05</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.0003456497294143269</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>353.1428880056728</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.011843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.9932504014844804</v>
+        <v>0.9929084261133604</v>
       </c>
       <c r="B3" t="n">
-        <v>4.123191222134754</v>
+        <v>2.100186842417654</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0004809773793431673</v>
+        <v>-0.0003009564477100203</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0002613041733394871</v>
+        <v>7.700918521205058e-05</v>
       </c>
       <c r="E3" t="n">
-        <v>-3.258300961257277e-08</v>
+        <v>-7.569405207489879e-07</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03651632309941521</v>
+        <v>0.02022944357287449</v>
       </c>
       <c r="G3" t="n">
-        <v>6.716882146367524e-06</v>
+        <v>1.925901625311234e-06</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0003128185633801451</v>
+        <v>7.620588195041111e-05</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1851723987229469</v>
+        <v>0.05348713401871846</v>
       </c>
       <c r="J3" t="n">
-        <v>3.634253016850352e-05</v>
+        <v>-3.760569958280231e-06</v>
       </c>
       <c r="K3" t="n">
-        <v>-4.167980349335233e-05</v>
+        <v>-1.487450827224378e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.00115546715723075</v>
+        <v>-0.0001945681486761352</v>
       </c>
       <c r="M3" t="n">
-        <v>-7.034853449199654e-06</v>
+        <v>-1.800652030964163e-06</v>
       </c>
       <c r="N3" t="n">
-        <v>-1.531098301630367e-05</v>
+        <v>-4.505112564015579e-06</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0001448253790490515</v>
+        <v>2.998955938076361e-05</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.001324395326422939</v>
+        <v>-0.0003456497294143269</v>
       </c>
       <c r="Q3" t="n">
-        <v>360.4726417877697</v>
+        <v>353.1428880056728</v>
       </c>
       <c r="R3" t="n">
-        <v>0.023687</v>
+        <v>0.011843</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.993748533794422</v>
+        <v>0.9932504014844804</v>
       </c>
       <c r="B4" t="n">
-        <v>5.962530372182236</v>
+        <v>4.123191222134754</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0008021863586244813</v>
+        <v>-0.0004809773793431673</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0009055687483722884</v>
+        <v>0.0002613041733394871</v>
       </c>
       <c r="E4" t="n">
-        <v>5.739260478013946e-07</v>
+        <v>-3.258300961257277e-08</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0465287945062978</v>
+        <v>0.03651632309941521</v>
       </c>
       <c r="G4" t="n">
-        <v>1.194342215878037e-05</v>
+        <v>6.716882146367524e-06</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0005509675024604045</v>
+        <v>0.0003128185633801451</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3296168426988054</v>
+        <v>0.1851723987229469</v>
       </c>
       <c r="J4" t="n">
-        <v>8.420603182589221e-05</v>
+        <v>3.634253016850352e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>-5.609663124757116e-05</v>
+        <v>-4.167980349335233e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.00219172948100192</v>
+        <v>-0.00115546715723075</v>
       </c>
       <c r="M4" t="n">
-        <v>-2.448527552095048e-05</v>
+        <v>-7.034853449199654e-06</v>
       </c>
       <c r="N4" t="n">
-        <v>-2.710492009383903e-05</v>
+        <v>-1.531098301630367e-05</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0002146592890897873</v>
+        <v>0.0001448253790490515</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.002691661765128767</v>
+        <v>-0.001324395326422939</v>
       </c>
       <c r="Q4" t="n">
-        <v>370.8941862029033</v>
+        <v>360.4726417877697</v>
       </c>
       <c r="R4" t="n">
-        <v>0.03553</v>
+        <v>0.023687</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.994326116734143</v>
+        <v>0.993748533794422</v>
       </c>
       <c r="B5" t="n">
-        <v>7.551199611386015</v>
+        <v>5.962530372182236</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.001155856258893762</v>
+        <v>-0.0008021863586244813</v>
       </c>
       <c r="D5" t="n">
-        <v>0.002083647581020081</v>
+        <v>0.0009055687483722884</v>
       </c>
       <c r="E5" t="n">
-        <v>9.025802381213451e-07</v>
+        <v>5.739260478013946e-07</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04985618606612686</v>
+        <v>0.0465287945062978</v>
       </c>
       <c r="G5" t="n">
-        <v>1.509408010543185e-05</v>
+        <v>1.194342215878037e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0007379887944930211</v>
+        <v>0.0005509675024604045</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4322753058304593</v>
+        <v>0.3296168426988054</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0001071768209845304</v>
+        <v>8.420603182589221e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>-7.026074197983831e-05</v>
+        <v>-5.609663124757116e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.002638102433974827</v>
+        <v>-0.00219172948100192</v>
       </c>
       <c r="M5" t="n">
-        <v>-5.679201874770392e-05</v>
+        <v>-2.448527552095048e-05</v>
       </c>
       <c r="N5" t="n">
-        <v>-3.556051154236454e-05</v>
+        <v>-2.710492009383903e-05</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0002051603438234118</v>
+        <v>0.0002146592890897873</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.004039875900040298</v>
+        <v>-0.002691661765128767</v>
       </c>
       <c r="Q5" t="n">
-        <v>382.6680674850013</v>
+        <v>370.8941862029033</v>
       </c>
       <c r="R5" t="n">
-        <v>0.047374</v>
+        <v>0.03553</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9949029778171391</v>
+        <v>0.994326116734143</v>
       </c>
       <c r="B6" t="n">
-        <v>8.861861598440546</v>
+        <v>7.551199611386015</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0009337651852137689</v>
+        <v>-0.001155856258893762</v>
       </c>
       <c r="D6" t="n">
-        <v>0.003588953908810822</v>
+        <v>0.002083647581020081</v>
       </c>
       <c r="E6" t="n">
-        <v>1.207703136012708e-06</v>
+        <v>9.025802381213451e-07</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04709759753148898</v>
+        <v>0.04985618606612686</v>
       </c>
       <c r="G6" t="n">
-        <v>1.57609846262933e-05</v>
+        <v>1.509408010543185e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0009426375733780678</v>
+        <v>0.0007379887944930211</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4632115664986005</v>
+        <v>0.4322753058304593</v>
       </c>
       <c r="J6" t="n">
-        <v>8.684640669359474e-05</v>
+        <v>0.0001071768209845304</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.0001185063226120327</v>
+        <v>-7.026074197983831e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.001900397033629386</v>
+        <v>-0.002638102433974827</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.000101304986354629</v>
+        <v>-5.679201874770392e-05</v>
       </c>
       <c r="N6" t="n">
-        <v>-3.920140845265251e-05</v>
+        <v>-3.556051154236454e-05</v>
       </c>
       <c r="O6" t="n">
-        <v>0.000146560270340459</v>
+        <v>0.0002051603438234118</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.004914380343298439</v>
+        <v>-0.004039875900040298</v>
       </c>
       <c r="Q6" t="n">
-        <v>394.0697879437735</v>
+        <v>382.6680674850013</v>
       </c>
       <c r="R6" t="n">
-        <v>0.059217</v>
+        <v>0.047374</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9954548602676564</v>
+        <v>0.9949029778171391</v>
       </c>
       <c r="B7" t="n">
-        <v>9.939331640175936</v>
+        <v>8.861861598440546</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.0009494683671652419</v>
+        <v>-0.0009337651852137689</v>
       </c>
       <c r="D7" t="n">
-        <v>0.004634348101088055</v>
+        <v>0.003588953908810822</v>
       </c>
       <c r="E7" t="n">
-        <v>1.183345360509447e-06</v>
+        <v>1.207703136012708e-06</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04319722598965362</v>
+        <v>0.04709759753148898</v>
       </c>
       <c r="G7" t="n">
-        <v>1.289299132803082e-05</v>
+        <v>1.57609846262933e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00103057344331826</v>
+        <v>0.0009426375733780678</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4634075571987304</v>
+        <v>0.4632115664986005</v>
       </c>
       <c r="J7" t="n">
-        <v>1.530660046967928e-05</v>
+        <v>8.684640669359474e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.0001507682834499956</v>
+        <v>-0.0001185063226120327</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.00158771366809726</v>
+        <v>-0.001900397033629386</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.0001364900618742502</v>
+        <v>-0.000101304986354629</v>
       </c>
       <c r="N7" t="n">
-        <v>-3.766563471909832e-05</v>
+        <v>-3.920140845265251e-05</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0002133726472611149</v>
+        <v>0.000146560270340459</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.005310468395327885</v>
+        <v>-0.004914380343298439</v>
       </c>
       <c r="Q7" t="n">
-        <v>404.5893311484854</v>
+        <v>394.0697879437735</v>
       </c>
       <c r="R7" t="n">
-        <v>0.07126</v>
+        <v>0.059217</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.9959441346153847</v>
+        <v>0.9954548602676564</v>
       </c>
       <c r="B8" t="n">
-        <v>10.80208186509722</v>
+        <v>9.939331640175936</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.0008034245450076848</v>
+        <v>-0.0009494683671652419</v>
       </c>
       <c r="D8" t="n">
-        <v>0.004516214587180424</v>
+        <v>0.004634348101088055</v>
       </c>
       <c r="E8" t="n">
-        <v>9.909630013045438e-07</v>
+        <v>1.183345360509447e-06</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03804277741228071</v>
+        <v>0.04319722598965362</v>
       </c>
       <c r="G8" t="n">
-        <v>8.207910745079842e-06</v>
+        <v>1.289299132803082e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.001154721460851936</v>
+        <v>0.00103057344331826</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4339855524004098</v>
+        <v>0.4634075571987304</v>
       </c>
       <c r="J8" t="n">
-        <v>-6.799606448774165e-05</v>
+        <v>1.530660046967928e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.0001706995268455884</v>
+        <v>-0.0001507682834499956</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0008019089953005509</v>
+        <v>-0.00158771366809726</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.0001618533604721894</v>
+        <v>-0.0001364900618742502</v>
       </c>
       <c r="N8" t="n">
-        <v>-3.405313547374044e-05</v>
+        <v>-3.766563471909832e-05</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0001579037505514476</v>
+        <v>0.0002133726472611149</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.005251692404038273</v>
+        <v>-0.005310468395327885</v>
       </c>
       <c r="Q8" t="n">
-        <v>413.6707046160654</v>
+        <v>404.5893311484854</v>
       </c>
       <c r="R8" t="n">
-        <v>0.083303</v>
+        <v>0.07126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.9963717996513721</v>
+        <v>0.9959441346153847</v>
       </c>
       <c r="B9" t="n">
-        <v>11.49626390138452</v>
+        <v>10.80208186509722</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.000616140817952779</v>
+        <v>-0.0008034245450076848</v>
       </c>
       <c r="D9" t="n">
-        <v>0.002859241417883428</v>
+        <v>0.004516214587180424</v>
       </c>
       <c r="E9" t="n">
-        <v>6.074020339321861e-07</v>
+        <v>9.909630013045438e-07</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0330382850877193</v>
+        <v>0.03804277741228071</v>
       </c>
       <c r="G9" t="n">
-        <v>1.895714013157891e-06</v>
+        <v>8.207910745079842e-06</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001217979889879011</v>
+        <v>0.001154721460851936</v>
       </c>
       <c r="I9" t="n">
-        <v>0.393906740765732</v>
+        <v>0.4339855524004098</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.0001558193073269667</v>
+        <v>-6.799606448774165e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0001916723413855307</v>
+        <v>-0.0001706995268455884</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0001595203349661525</v>
+        <v>-0.0008019089953005509</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.0001671215755707596</v>
+        <v>-0.0001618533604721894</v>
       </c>
       <c r="N9" t="n">
-        <v>-2.878269377333246e-05</v>
+        <v>-3.405313547374044e-05</v>
       </c>
       <c r="O9" t="n">
-        <v>1.732313178262608e-05</v>
+        <v>0.0001579037505514476</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.004956483728654345</v>
+        <v>-0.005251692404038273</v>
       </c>
       <c r="Q9" t="n">
-        <v>421.4074940898079</v>
+        <v>413.6707046160654</v>
       </c>
       <c r="R9" t="n">
-        <v>0.095346</v>
+        <v>0.083303</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.9967420650584795</v>
+        <v>0.9963717996513721</v>
       </c>
       <c r="B10" t="n">
-        <v>12.06067824698855</v>
+        <v>11.49626390138452</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0004235432316657922</v>
+        <v>-0.000616140817952779</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.0004314754697668311</v>
+        <v>0.002859241417883428</v>
       </c>
       <c r="E10" t="n">
-        <v>1.270407450601668e-07</v>
+        <v>6.074020339321861e-07</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02857800809716599</v>
+        <v>0.0330382850877193</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.34107547306567e-06</v>
+        <v>1.895714013157891e-06</v>
       </c>
       <c r="H10" t="n">
-        <v>0.001220813342301101</v>
+        <v>0.001217979889879011</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3514693413555255</v>
+        <v>0.393906740765732</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.0002333676055193184</v>
+        <v>-0.0001558193073269667</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0002170065024703073</v>
+        <v>-0.0001916723413855307</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0002803946866046727</v>
+        <v>-0.0001595203349661525</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.0001539046546037012</v>
+        <v>-0.0001671215755707596</v>
       </c>
       <c r="N10" t="n">
-        <v>-2.39630949236158e-05</v>
+        <v>-2.878269377333246e-05</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.0001588086869330891</v>
+        <v>1.732313178262608e-05</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.00454405611074499</v>
+        <v>-0.004956483728654345</v>
       </c>
       <c r="Q10" t="n">
-        <v>427.9561782173727</v>
+        <v>421.4074940898079</v>
       </c>
       <c r="R10" t="n">
-        <v>0.10739</v>
+        <v>0.095346</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.9970636018331083</v>
+        <v>0.9967420650584795</v>
       </c>
       <c r="B11" t="n">
-        <v>12.52683334270505</v>
+        <v>12.06067824698855</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.0003174511652976146</v>
+        <v>-0.0004235432316657922</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.005170916798167516</v>
+        <v>-0.0004314754697668311</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.704395311951761e-07</v>
+        <v>1.270407450601668e-07</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02501568010692196</v>
+        <v>0.02857800809716599</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.266892000125113e-05</v>
+        <v>-5.34107547306567e-06</v>
       </c>
       <c r="H11" t="n">
-        <v>0.001250285692738362</v>
+        <v>0.001220813342301101</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3167484740061291</v>
+        <v>0.3514693413555255</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.000295199773986136</v>
+        <v>-0.0002333676055193184</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.0002208539577964603</v>
+        <v>-0.0002170065024703073</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001058339200307783</v>
+        <v>0.0002803946866046727</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.0001332129188215375</v>
+        <v>-0.0001539046546037012</v>
       </c>
       <c r="N11" t="n">
-        <v>-2.201402013575249e-05</v>
+        <v>-2.39630949236158e-05</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.0003942351828813041</v>
+        <v>-0.0001588086869330891</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.004028022428865678</v>
+        <v>-0.00454405611074499</v>
       </c>
       <c r="Q11" t="n">
-        <v>433.5487280996234</v>
+        <v>427.9561782173727</v>
       </c>
       <c r="R11" t="n">
-        <v>0.11943</v>
+        <v>0.10739</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.9973492622582096</v>
+        <v>0.9970636018331083</v>
       </c>
       <c r="B12" t="n">
-        <v>12.92311740890688</v>
+        <v>12.52683334270505</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.0002052913801216449</v>
+        <v>-0.0003174511652976146</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.01119272895221047</v>
+        <v>-0.005170916798167516</v>
       </c>
       <c r="E12" t="n">
-        <v>-4.894429678446916e-07</v>
+        <v>-1.704395311951761e-07</v>
       </c>
       <c r="F12" t="n">
-        <v>0.02187332068151147</v>
+        <v>0.02501568010692196</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.829312518977734e-05</v>
+        <v>-1.266892000125113e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.001230610813002012</v>
+        <v>0.001250285692738362</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2813924042210227</v>
+        <v>0.3167484740061291</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.0003216634247989766</v>
+        <v>-0.000295199773986136</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.0002346561283510615</v>
+        <v>-0.0002208539577964603</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0006836117706661104</v>
+        <v>0.001058339200307783</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.0001052067797779996</v>
+        <v>-0.0001332129188215375</v>
       </c>
       <c r="N12" t="n">
-        <v>-2.246124910821134e-05</v>
+        <v>-2.201402013575249e-05</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.0005167702539354976</v>
+        <v>-0.0003942351828813041</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.003555370943710795</v>
+        <v>-0.004028022428865678</v>
       </c>
       <c r="Q12" t="n">
-        <v>438.4170720561054</v>
+        <v>433.5487280996234</v>
       </c>
       <c r="R12" t="n">
-        <v>0.13167</v>
+        <v>0.11943</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.9976013065114711</v>
+        <v>0.9973492622582096</v>
       </c>
       <c r="B13" t="n">
-        <v>13.25927537861748</v>
+        <v>12.92311740890688</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.0001404725476458239</v>
+        <v>-0.0002052913801216449</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.01803962520677138</v>
+        <v>-0.01119272895221047</v>
       </c>
       <c r="E13" t="n">
-        <v>-7.543491489231899e-07</v>
+        <v>-4.894429678446916e-07</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01943198270917679</v>
+        <v>0.02187332068151147</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.291414124254948e-05</v>
+        <v>-1.829312518977734e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.001244668559634815</v>
+        <v>0.001230610813002012</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2544010974284001</v>
+        <v>0.2813924042210227</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.0003478186869970511</v>
+        <v>-0.0003216634247989766</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.0002311864061951754</v>
+        <v>-0.0002346561283510615</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0007738659944170634</v>
+        <v>0.0006836117706661104</v>
       </c>
       <c r="M13" t="n">
-        <v>-7.689268198457102e-05</v>
+        <v>-0.0001052067797779996</v>
       </c>
       <c r="N13" t="n">
-        <v>-2.81988104890632e-05</v>
+        <v>-2.246124910821134e-05</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.0006102988626416693</v>
+        <v>-0.0005167702539354976</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.003067397249500175</v>
+        <v>-0.003555370943710795</v>
       </c>
       <c r="Q13" t="n">
-        <v>442.639748449279</v>
+        <v>438.4170720561054</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1439</v>
+        <v>0.13167</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.9978267504498426</v>
+        <v>0.9976013065114711</v>
       </c>
       <c r="B14" t="n">
-        <v>13.54864589581147</v>
+        <v>13.25927537861748</v>
       </c>
       <c r="C14" t="n">
-        <v>-8.527060820431611e-05</v>
+        <v>-0.0001404725476458239</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.02527856968042435</v>
+        <v>-0.01803962520677138</v>
       </c>
       <c r="E14" t="n">
-        <v>-9.56260075832209e-07</v>
+        <v>-7.543491489231899e-07</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01750105572424651</v>
+        <v>0.01943198270917679</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.526682603351327e-05</v>
+        <v>-2.291414124254948e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.001221110141482825</v>
+        <v>0.001244668559634815</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2327334311116109</v>
+        <v>0.2544010974284001</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.0003504688451785468</v>
+        <v>-0.0003478186869970511</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.0002378312237171427</v>
+        <v>-0.0002311864061951754</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0008085014117827509</v>
+        <v>0.0007738659944170634</v>
       </c>
       <c r="M14" t="n">
-        <v>-5.37060525331056e-05</v>
+        <v>-7.689268198457102e-05</v>
       </c>
       <c r="N14" t="n">
-        <v>-3.909811893427925e-05</v>
+        <v>-2.81988104890632e-05</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.0006861578722970398</v>
+        <v>-0.0006102988626416693</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.002632646704962638</v>
+        <v>-0.003067397249500175</v>
       </c>
       <c r="Q14" t="n">
-        <v>446.3439355363534</v>
+        <v>442.639748449279</v>
       </c>
       <c r="R14" t="n">
-        <v>0.15613</v>
+        <v>0.1439</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.9980309592892488</v>
+        <v>0.9978267504498426</v>
       </c>
       <c r="B15" t="n">
-        <v>13.80143470097966</v>
+        <v>13.54864589581147</v>
       </c>
       <c r="C15" t="n">
-        <v>-2.786468211282355e-05</v>
+        <v>-8.527060820431611e-05</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.03248481285781226</v>
+        <v>-0.02527856968042435</v>
       </c>
       <c r="E15" t="n">
-        <v>-1.058833438371569e-06</v>
+        <v>-9.56260075832209e-07</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01593046943882141</v>
+        <v>0.01750105572424651</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.530816772787336e-05</v>
+        <v>-2.526682603351327e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.001159796073308826</v>
+        <v>0.001221110141482825</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2146917722547109</v>
+        <v>0.2327334311116109</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.0003264171074249013</v>
+        <v>-0.0003504688451785468</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.0002571021647680187</v>
+        <v>-0.0002378312237171427</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0007563051899892693</v>
+        <v>0.0008085014117827509</v>
       </c>
       <c r="M15" t="n">
-        <v>-3.822943765336819e-05</v>
+        <v>-5.37060525331056e-05</v>
       </c>
       <c r="N15" t="n">
-        <v>-5.232779044807755e-05</v>
+        <v>-3.909811893427925e-05</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.0007368287865033176</v>
+        <v>-0.0006861578722970398</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.002256598017745508</v>
+        <v>-0.002632646704962638</v>
       </c>
       <c r="Q15" t="n">
-        <v>449.6312896962342</v>
+        <v>446.3439355363534</v>
       </c>
       <c r="R15" t="n">
-        <v>0.16836</v>
+        <v>0.15613</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.9982173196412506</v>
+        <v>0.9980309592892488</v>
       </c>
       <c r="B16" t="n">
-        <v>14.0247179502799</v>
+        <v>13.80143470097966</v>
       </c>
       <c r="C16" t="n">
-        <v>3.33288569805253e-05</v>
+        <v>-2.786468211282355e-05</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.03924226156267103</v>
+        <v>-0.03248481285781226</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.024613763682242e-06</v>
+        <v>-1.058833438371569e-06</v>
       </c>
       <c r="F16" t="n">
-        <v>0.01461430932513495</v>
+        <v>0.01593046943882141</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.430514383749438e-05</v>
+        <v>-2.530816772787336e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.001124225981698351</v>
+        <v>0.001159796073308826</v>
       </c>
       <c r="I16" t="n">
-        <v>0.200076516177252</v>
+        <v>0.2146917722547109</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.000297026063741471</v>
+        <v>-0.0003264171074249013</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.0002659333209228644</v>
+        <v>-0.0002571021647680187</v>
       </c>
       <c r="L16" t="n">
-        <v>0.001017221318075431</v>
+        <v>0.0007563051899892693</v>
       </c>
       <c r="M16" t="n">
-        <v>-3.189292280324855e-05</v>
+        <v>-3.822943765336819e-05</v>
       </c>
       <c r="N16" t="n">
-        <v>-6.461498725596822e-05</v>
+        <v>-5.232779044807755e-05</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.0008104719036799619</v>
+        <v>-0.0007368287865033176</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.001899086284802944</v>
+        <v>-0.002256598017745508</v>
       </c>
       <c r="Q16" t="n">
-        <v>452.5769382839969</v>
+        <v>449.6312896962342</v>
       </c>
       <c r="R16" t="n">
-        <v>0.1806</v>
+        <v>0.16836</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.9983920113585245</v>
+        <v>0.9982173196412506</v>
       </c>
       <c r="B17" t="n">
-        <v>14.22694007097516</v>
+        <v>14.0247179502799</v>
       </c>
       <c r="C17" t="n">
-        <v>9.660442318032414e-05</v>
+        <v>3.33288569805253e-05</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.04539393367274579</v>
+        <v>-0.03924226156267103</v>
       </c>
       <c r="E17" t="n">
-        <v>-8.146568683963114e-07</v>
+        <v>-1.024613763682242e-06</v>
       </c>
       <c r="F17" t="n">
-        <v>0.01351829805443095</v>
+        <v>0.01461430932513495</v>
       </c>
       <c r="G17" t="n">
-        <v>-2.207081352977397e-05</v>
+        <v>-2.430514383749438e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.001047972404010628</v>
+        <v>0.001124225981698351</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1867503608112161</v>
+        <v>0.200076516177252</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.0002401427444950518</v>
+        <v>-0.000297026063741471</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0002873868736842574</v>
+        <v>-0.0002659333209228644</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0006454208038762526</v>
+        <v>0.001017221318075431</v>
       </c>
       <c r="M17" t="n">
-        <v>-3.405187921641487e-05</v>
+        <v>-3.189292280324855e-05</v>
       </c>
       <c r="N17" t="n">
-        <v>-7.316861586060504e-05</v>
+        <v>-6.461498725596822e-05</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.0008024976608539356</v>
+        <v>-0.0008104719036799619</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.001608107736647798</v>
+        <v>-0.001899086284802944</v>
       </c>
       <c r="Q17" t="n">
-        <v>455.276871562401</v>
+        <v>452.5769382839969</v>
       </c>
       <c r="R17" t="n">
-        <v>0.19301</v>
+        <v>0.1806</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.9985537533738194</v>
+        <v>0.9983920113585245</v>
       </c>
       <c r="B18" t="n">
-        <v>14.40916688534013</v>
+        <v>14.22694007097516</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0001441363052572225</v>
+        <v>9.660442318032414e-05</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.05071623451073607</v>
+        <v>-0.04539393367274579</v>
       </c>
       <c r="E18" t="n">
-        <v>-6.161351660796216e-07</v>
+        <v>-8.146568683963114e-07</v>
       </c>
       <c r="F18" t="n">
-        <v>0.01257092664192533</v>
+        <v>0.01351829805443095</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.948311774881915e-05</v>
+        <v>-2.207081352977397e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0009974536442255212</v>
+        <v>0.001047972404010628</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1756652292010296</v>
+        <v>0.1867503608112161</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.0001796290800813465</v>
+        <v>-0.0002401427444950518</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.0003035254794847117</v>
+        <v>-0.0002873868736842574</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0006074474446269586</v>
+        <v>0.0006454208038762526</v>
       </c>
       <c r="M18" t="n">
-        <v>-4.515241445228545e-05</v>
+        <v>-3.405187921641487e-05</v>
       </c>
       <c r="N18" t="n">
-        <v>-8.120199078343984e-05</v>
+        <v>-7.316861586060504e-05</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.0007723450271978244</v>
+        <v>-0.0008024976608539356</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.001327263634363707</v>
+        <v>-0.001608107736647798</v>
       </c>
       <c r="Q18" t="n">
-        <v>457.7381904540096</v>
+        <v>455.276871562401</v>
       </c>
       <c r="R18" t="n">
-        <v>0.20542</v>
+        <v>0.19301</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.9987046620557805</v>
+        <v>0.9985537533738194</v>
       </c>
       <c r="B19" t="n">
-        <v>14.57526876530714</v>
+        <v>14.40916688534013</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0001679494220226047</v>
+        <v>0.0001441363052572225</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.05516593491454554</v>
+        <v>-0.05071623451073607</v>
       </c>
       <c r="E19" t="n">
-        <v>-3.990482773813537e-07</v>
+        <v>-6.161351660796216e-07</v>
       </c>
       <c r="F19" t="n">
-        <v>0.01176379800944669</v>
+        <v>0.01257092664192533</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.72217173940902e-05</v>
+        <v>-1.948311774881915e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0009300377347239403</v>
+        <v>0.0009974536442255212</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1661708277103014</v>
+        <v>0.1756652292010296</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.0001259145484564778</v>
+        <v>-0.0001796290800813465</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.0003293257966374378</v>
+        <v>-0.0003035254794847117</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0005935488270059229</v>
+        <v>0.0006074474446269586</v>
       </c>
       <c r="M19" t="n">
-        <v>-5.787036280326886e-05</v>
+        <v>-4.515241445228545e-05</v>
       </c>
       <c r="N19" t="n">
-        <v>-8.38295765242009e-05</v>
+        <v>-8.120199078343984e-05</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.0007305717929869856</v>
+        <v>-0.0007723450271978244</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.001085689823940619</v>
+        <v>-0.001327263634363707</v>
       </c>
       <c r="Q19" t="n">
-        <v>460.00521511617</v>
+        <v>457.7381904540096</v>
       </c>
       <c r="R19" t="n">
-        <v>0.21783</v>
+        <v>0.20542</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.9988461333220873</v>
+        <v>0.9987046620557805</v>
       </c>
       <c r="B20" t="n">
-        <v>14.72824203716199</v>
+        <v>14.57526876530714</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0001654419686625308</v>
+        <v>0.0001679494220226047</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.05873637676858881</v>
+        <v>-0.05516593491454554</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.371397072702989e-07</v>
+        <v>-3.990482773813537e-07</v>
       </c>
       <c r="F20" t="n">
-        <v>0.01104434289811066</v>
+        <v>0.01176379800944669</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.55568760298583e-05</v>
+        <v>-1.72217173940902e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0008508973204945456</v>
+        <v>0.0009300377347239403</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1574816481419003</v>
+        <v>0.1661708277103014</v>
       </c>
       <c r="J20" t="n">
-        <v>-8.562156021642433e-05</v>
+        <v>-0.0001259145484564778</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.000363833289241542</v>
+        <v>-0.0003293257966374378</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0005455212922009172</v>
+        <v>0.0005935488270059229</v>
       </c>
       <c r="M20" t="n">
-        <v>-6.939203858200566e-05</v>
+        <v>-5.787036280326886e-05</v>
       </c>
       <c r="N20" t="n">
-        <v>-8.042766391379267e-05</v>
+        <v>-8.38295765242009e-05</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.0006693198851570809</v>
+        <v>-0.0007305717929869856</v>
       </c>
       <c r="P20" t="n">
-        <v>-0.0008810611869316052</v>
+        <v>-0.001085689823940619</v>
       </c>
       <c r="Q20" t="n">
-        <v>462.1129997867703</v>
+        <v>460.00521511617</v>
       </c>
       <c r="R20" t="n">
-        <v>0.23025</v>
+        <v>0.21783</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.9989789248762935</v>
+        <v>0.9988461333220873</v>
       </c>
       <c r="B21" t="n">
-        <v>14.87022819356975</v>
+        <v>14.72824203716199</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0001405452910653146</v>
+        <v>0.0001654419686625308</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.06145735351838965</v>
+        <v>-0.05873637676858881</v>
       </c>
       <c r="E21" t="n">
-        <v>1.895914890885059e-07</v>
+        <v>-1.371397072702989e-07</v>
       </c>
       <c r="F21" t="n">
-        <v>0.01039596817412421</v>
+        <v>0.01104434289811066</v>
       </c>
       <c r="G21" t="n">
-        <v>-1.416619140990751e-05</v>
+        <v>-1.55568760298583e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.000804237521974801</v>
+        <v>0.0008508973204945456</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1498911439013923</v>
+        <v>0.1574816481419003</v>
       </c>
       <c r="J21" t="n">
-        <v>-5.414756226734696e-05</v>
+        <v>-8.562156021642433e-05</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.0003929953236255873</v>
+        <v>-0.000363833289241542</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0006888011739718365</v>
+        <v>0.0005455212922009172</v>
       </c>
       <c r="M21" t="n">
-        <v>-8.497009939746089e-05</v>
+        <v>-6.939203858200566e-05</v>
       </c>
       <c r="N21" t="n">
-        <v>-7.623162904299901e-05</v>
+        <v>-8.042766391379267e-05</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.0006235512780869041</v>
+        <v>-0.0006693198851570809</v>
       </c>
       <c r="P21" t="n">
-        <v>-0.0006844161410258511</v>
+        <v>-0.0008810611869316052</v>
       </c>
       <c r="Q21" t="n">
-        <v>464.0872994172334</v>
+        <v>462.1129997867703</v>
       </c>
       <c r="R21" t="n">
-        <v>0.24266</v>
+        <v>0.23025</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.9991062902046782</v>
+        <v>0.9989789248762935</v>
       </c>
       <c r="B22" t="n">
-        <v>15.00457630454341</v>
+        <v>14.87022819356975</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0001010372595841462</v>
+        <v>0.0001405452910653146</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.0633599421781392</v>
+        <v>-0.06145735351838965</v>
       </c>
       <c r="E22" t="n">
-        <v>5.429202927257647e-07</v>
+        <v>1.895914890885059e-07</v>
       </c>
       <c r="F22" t="n">
-        <v>0.009833276006522718</v>
+        <v>0.01039596817412421</v>
       </c>
       <c r="G22" t="n">
-        <v>-1.264654769081759e-05</v>
+        <v>-1.416619140990751e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0007413196873784487</v>
+        <v>0.000804237521974801</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1427802523804168</v>
+        <v>0.1498911439013923</v>
       </c>
       <c r="J22" t="n">
-        <v>-2.135162527334193e-05</v>
+        <v>-5.414756226734696e-05</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0004303240948513801</v>
+        <v>-0.0003929953236255873</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0004856848657993296</v>
+        <v>0.0006888011739718365</v>
       </c>
       <c r="M22" t="n">
-        <v>-9.979444855859825e-05</v>
+        <v>-8.497009939746089e-05</v>
       </c>
       <c r="N22" t="n">
-        <v>-6.905485634534164e-05</v>
+        <v>-7.623162904299901e-05</v>
       </c>
       <c r="O22" t="n">
-        <v>-0.0005779087358449542</v>
+        <v>-0.0006235512780869041</v>
       </c>
       <c r="P22" t="n">
-        <v>-0.0005309751432188733</v>
+        <v>-0.0006844161410258511</v>
       </c>
       <c r="Q22" t="n">
-        <v>465.9710820441463</v>
+        <v>464.0872994172334</v>
       </c>
       <c r="R22" t="n">
-        <v>0.25524</v>
+        <v>0.24266</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.999226683816914</v>
+        <v>0.9991062902046782</v>
       </c>
       <c r="B23" t="n">
-        <v>15.13069394461938</v>
+        <v>15.00457630454341</v>
       </c>
       <c r="C23" t="n">
-        <v>5.712069361660949e-05</v>
+        <v>0.0001010372595841462</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.06446278682668878</v>
+        <v>-0.0633599421781392</v>
       </c>
       <c r="E23" t="n">
-        <v>9.184975807130006e-07</v>
+        <v>5.429202927257647e-07</v>
       </c>
       <c r="F23" t="n">
-        <v>0.009336499015969411</v>
+        <v>0.009833276006522718</v>
       </c>
       <c r="G23" t="n">
-        <v>-1.009735929338169e-05</v>
+        <v>-1.264654769081759e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0007025702090754642</v>
+        <v>0.0007413196873784487</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1367996730831709</v>
+        <v>0.1427802523804168</v>
       </c>
       <c r="J23" t="n">
-        <v>2.340363663967615e-05</v>
+        <v>-2.135162527334193e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.0004610657322978052</v>
+        <v>-0.0004303240948513801</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0004731455555714484</v>
+        <v>0.0004856848657993296</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.0001136056805307205</v>
+        <v>-9.979444855859825e-05</v>
       </c>
       <c r="N23" t="n">
-        <v>-6.2293891534994e-05</v>
+        <v>-6.905485634534164e-05</v>
       </c>
       <c r="O23" t="n">
-        <v>-0.0005510846234283625</v>
+        <v>-0.0005779087358449542</v>
       </c>
       <c r="P23" t="n">
-        <v>-0.0003832103143329679</v>
+        <v>-0.0005309751432188733</v>
       </c>
       <c r="Q23" t="n">
-        <v>467.7550590399288</v>
+        <v>465.9710820441463</v>
       </c>
       <c r="R23" t="n">
-        <v>0.26782</v>
+        <v>0.25524</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.9993414133490778</v>
+        <v>0.999226683816914</v>
       </c>
       <c r="B24" t="n">
-        <v>15.24984544471935</v>
+        <v>15.13069394461938</v>
       </c>
       <c r="C24" t="n">
-        <v>1.525031713900139e-05</v>
+        <v>5.712069361660949e-05</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.06492027455626467</v>
+        <v>-0.06446278682668878</v>
       </c>
       <c r="E24" t="n">
-        <v>1.243941022702991e-06</v>
+        <v>9.184975807130006e-07</v>
       </c>
       <c r="F24" t="n">
-        <v>0.008909939906657671</v>
+        <v>0.009336499015969411</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.079732318094912e-06</v>
+        <v>-1.009735929338169e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0006598717047455265</v>
+        <v>0.0007025702090754642</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1317447059154296</v>
+        <v>0.1367996730831709</v>
       </c>
       <c r="J24" t="n">
-        <v>7.564994836760258e-05</v>
+        <v>2.340363663967615e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.0004937852609388276</v>
+        <v>-0.0004610657322978052</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0004781562275911399</v>
+        <v>0.0004731455555714484</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.0001238797272857937</v>
+        <v>-0.0001136056805307205</v>
       </c>
       <c r="N24" t="n">
-        <v>-5.535175902638763e-05</v>
+        <v>-6.2293891534994e-05</v>
       </c>
       <c r="O24" t="n">
-        <v>-0.0005246088074117654</v>
+        <v>-0.0005510846234283625</v>
       </c>
       <c r="P24" t="n">
-        <v>-0.0002597688721945912</v>
+        <v>-0.0003832103143329679</v>
       </c>
       <c r="Q24" t="n">
-        <v>469.4544995427323</v>
+        <v>467.7550590399288</v>
       </c>
       <c r="R24" t="n">
-        <v>0.2804</v>
+        <v>0.26782</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.9994510172064778</v>
+        <v>0.9993414133490778</v>
       </c>
       <c r="B25" t="n">
-        <v>15.36304106062878</v>
+        <v>15.24984544471935</v>
       </c>
       <c r="C25" t="n">
-        <v>-2.023118391375589e-05</v>
+        <v>1.525031713900139e-05</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.06489798635342005</v>
+        <v>-0.06492027455626467</v>
       </c>
       <c r="E25" t="n">
-        <v>1.489037910343568e-06</v>
+        <v>1.243941022702991e-06</v>
       </c>
       <c r="F25" t="n">
-        <v>0.008521900671952316</v>
+        <v>0.008909939906657671</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.146434131975376e-06</v>
+        <v>-7.079732318094912e-06</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0006136747889247044</v>
+        <v>0.0006598717047455265</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1270831632366172</v>
+        <v>0.1317447059154296</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0001273202470510321</v>
+        <v>7.564994836760258e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.0005294067664068982</v>
+        <v>-0.0004937852609388276</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0004558235338845466</v>
+        <v>0.0004781562275911399</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.0001302140399675895</v>
+        <v>-0.0001238797272857937</v>
       </c>
       <c r="N25" t="n">
-        <v>-4.916495567409218e-05</v>
+        <v>-5.535175902638763e-05</v>
       </c>
       <c r="O25" t="n">
-        <v>-0.0004828663766475796</v>
+        <v>-0.0005246088074117654</v>
       </c>
       <c r="P25" t="n">
-        <v>-0.0001575195522965399</v>
+        <v>-0.0002597688721945912</v>
       </c>
       <c r="Q25" t="n">
-        <v>471.0816656516981</v>
+        <v>469.4544995427323</v>
       </c>
       <c r="R25" t="n">
-        <v>0.29298</v>
+        <v>0.2804</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.9995559304712101</v>
+        <v>0.9994510172064778</v>
       </c>
       <c r="B26" t="n">
-        <v>15.47104185410106</v>
+        <v>15.36304106062878</v>
       </c>
       <c r="C26" t="n">
-        <v>-4.682030482221883e-05</v>
+        <v>-2.023118391375589e-05</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.06457254535222626</v>
+        <v>-0.06489798635342005</v>
       </c>
       <c r="E26" t="n">
-        <v>1.675133332460358e-06</v>
+        <v>1.489037910343568e-06</v>
       </c>
       <c r="F26" t="n">
-        <v>0.008172099841163407</v>
+        <v>0.008521900671952316</v>
       </c>
       <c r="G26" t="n">
-        <v>-1.817666751490107e-06</v>
+        <v>-4.146434131975376e-06</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0005861721755769621</v>
+        <v>0.0006136747889247044</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1230367868747657</v>
+        <v>0.1270831632366172</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0001654868941129979</v>
+        <v>0.0001273202470510321</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.0005619676463059398</v>
+        <v>-0.0005294067664068982</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0005623619814933211</v>
+        <v>0.0004558235338845466</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.0001318347012899782</v>
+        <v>-0.0001302140399675895</v>
       </c>
       <c r="N26" t="n">
-        <v>-4.464164631674321e-05</v>
+        <v>-4.916495567409218e-05</v>
       </c>
       <c r="O26" t="n">
-        <v>-0.0004467079298925977</v>
+        <v>-0.0004828663766475796</v>
       </c>
       <c r="P26" t="n">
-        <v>-5.385158510579108e-05</v>
+        <v>-0.0001575195522965399</v>
       </c>
       <c r="Q26" t="n">
-        <v>472.6457689878628</v>
+        <v>471.0816656516981</v>
       </c>
       <c r="R26" t="n">
-        <v>0.30556</v>
+        <v>0.29298</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.9996582723234368</v>
+        <v>0.9995559304712101</v>
       </c>
       <c r="B27" t="n">
-        <v>15.57572660506323</v>
+        <v>15.47104185410106</v>
       </c>
       <c r="C27" t="n">
-        <v>-6.243892821887308e-05</v>
+        <v>-4.682030482221883e-05</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.06403305289578336</v>
+        <v>-0.06457254535222626</v>
       </c>
       <c r="E27" t="n">
-        <v>1.82977410691155e-06</v>
+        <v>1.675133332460358e-06</v>
       </c>
       <c r="F27" t="n">
-        <v>0.007872792914979759</v>
+        <v>0.008172099841163407</v>
       </c>
       <c r="G27" t="n">
-        <v>-1.045564466655363e-07</v>
+        <v>-1.817666751490107e-06</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0005485444945834895</v>
+        <v>0.0005861721755769621</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1194067999637627</v>
+        <v>0.1230367868747657</v>
       </c>
       <c r="J27" t="n">
-        <v>0.0001920457593685961</v>
+        <v>0.0001654868941129979</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.0005995115137484693</v>
+        <v>-0.0005619676463059398</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0004423572110704534</v>
+        <v>0.0005623619814933211</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.0001274378025483268</v>
+        <v>-0.0001318347012899782</v>
       </c>
       <c r="N27" t="n">
-        <v>-4.215394868719385e-05</v>
+        <v>-4.464164631674321e-05</v>
       </c>
       <c r="O27" t="n">
-        <v>-0.0004042297415010996</v>
+        <v>-0.0004467079298925977</v>
       </c>
       <c r="P27" t="n">
-        <v>2.433053672324063e-05</v>
+        <v>-5.385158510579108e-05</v>
       </c>
       <c r="Q27" t="n">
-        <v>474.172527979367</v>
+        <v>472.6457689878628</v>
       </c>
       <c r="R27" t="n">
-        <v>0.3183</v>
+        <v>0.30556</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.9997560329509672</v>
+        <v>0.9996582723234368</v>
       </c>
       <c r="B28" t="n">
-        <v>15.67628826785625</v>
+        <v>15.57572660506323</v>
       </c>
       <c r="C28" t="n">
-        <v>-6.648361778065123e-05</v>
+        <v>-6.243892821887308e-05</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.06340075094036932</v>
+        <v>-0.06403305289578336</v>
       </c>
       <c r="E28" t="n">
-        <v>2.06388008230713e-06</v>
+        <v>1.82977410691155e-06</v>
       </c>
       <c r="F28" t="n">
-        <v>0.007615199496738643</v>
+        <v>0.007872792914979759</v>
       </c>
       <c r="G28" t="n">
-        <v>1.171336950910934e-06</v>
+        <v>-1.045564466655363e-07</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0005262591382489676</v>
+        <v>0.0005485444945834895</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1164650625406108</v>
+        <v>0.1194067999637627</v>
       </c>
       <c r="J28" t="n">
-        <v>0.0002074233208673839</v>
+        <v>0.0001920457593685961</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.000632077846109799</v>
+        <v>-0.0005995115137484693</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0004429036908293035</v>
+        <v>0.0004423572110704534</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.0001167691839610824</v>
+        <v>-0.0001274378025483268</v>
       </c>
       <c r="N28" t="n">
-        <v>-4.083655361161095e-05</v>
+        <v>-4.215394868719385e-05</v>
       </c>
       <c r="O28" t="n">
-        <v>-0.0003835124554136989</v>
+        <v>-0.0004042297415010996</v>
       </c>
       <c r="P28" t="n">
-        <v>0.0001038138271018925</v>
+        <v>2.433053672324063e-05</v>
       </c>
       <c r="Q28" t="n">
-        <v>475.6501953016507</v>
+        <v>474.172527979367</v>
       </c>
       <c r="R28" t="n">
-        <v>0.33104</v>
+        <v>0.3183</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.999852403002699</v>
+        <v>0.9997560329509672</v>
       </c>
       <c r="B29" t="n">
-        <v>15.77325767231469</v>
+        <v>15.67628826785625</v>
       </c>
       <c r="C29" t="n">
-        <v>-6.322182037536863e-05</v>
+        <v>-6.648361778065123e-05</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.06277045584409988</v>
+        <v>-0.06340075094036932</v>
       </c>
       <c r="E29" t="n">
-        <v>2.330860960948044e-06</v>
+        <v>2.06388008230713e-06</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0073987588028565</v>
+        <v>0.007615199496738643</v>
       </c>
       <c r="G29" t="n">
-        <v>1.565334547655197e-06</v>
+        <v>1.171336950910934e-06</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0005009520315889438</v>
+        <v>0.0005262591382489676</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1140835743427301</v>
+        <v>0.1164650625406108</v>
       </c>
       <c r="J29" t="n">
-        <v>0.0002052707141163093</v>
+        <v>0.0002074233208673839</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.0006622926016572324</v>
+        <v>-0.000632077846109799</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0004569118574117185</v>
+        <v>0.0004429036908293035</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.0001015849602245464</v>
+        <v>-0.0001167691839610824</v>
       </c>
       <c r="N29" t="n">
-        <v>-3.973067406866659e-05</v>
+        <v>-4.083655361161095e-05</v>
       </c>
       <c r="O29" t="n">
-        <v>-0.0003810882714136302</v>
+        <v>-0.0003835124554136989</v>
       </c>
       <c r="P29" t="n">
-        <v>0.0001691447759626568</v>
+        <v>0.0001038138271018925</v>
       </c>
       <c r="Q29" t="n">
-        <v>477.0846993163296</v>
+        <v>475.6501953016507</v>
       </c>
       <c r="R29" t="n">
-        <v>0.34377</v>
+        <v>0.33104</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.9999453604363472</v>
+        <v>0.999852403002699</v>
       </c>
       <c r="B30" t="n">
-        <v>15.86706855725496</v>
+        <v>15.77325767231469</v>
       </c>
       <c r="C30" t="n">
-        <v>-5.744093045402887e-05</v>
+        <v>-6.322182037536863e-05</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.06220377001837778</v>
+        <v>-0.06277045584409988</v>
       </c>
       <c r="E30" t="n">
-        <v>2.584082748653284e-06</v>
+        <v>2.330860960948044e-06</v>
       </c>
       <c r="F30" t="n">
-        <v>0.007191507942532613</v>
+        <v>0.0073987588028565</v>
       </c>
       <c r="G30" t="n">
-        <v>8.638245735211366e-07</v>
+        <v>1.565334547655197e-06</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0004716079252241403</v>
+        <v>0.0005009520315889438</v>
       </c>
       <c r="I30" t="n">
-        <v>0.111724873794172</v>
+        <v>0.1140835743427301</v>
       </c>
       <c r="J30" t="n">
-        <v>0.0001820580870584357</v>
+        <v>0.0002052707141163093</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.0006895303557171708</v>
+        <v>-0.0006622926016572324</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0004476258405072693</v>
+        <v>0.0004569118574117185</v>
       </c>
       <c r="M30" t="n">
-        <v>-8.39328983662515e-05</v>
+        <v>-0.0001015849602245464</v>
       </c>
       <c r="N30" t="n">
-        <v>-3.872808729446256e-05</v>
+        <v>-3.973067406866659e-05</v>
       </c>
       <c r="O30" t="n">
-        <v>-0.000386969047872151</v>
+        <v>-0.0003810882714136302</v>
       </c>
       <c r="P30" t="n">
-        <v>0.0002200530436291204</v>
+        <v>0.0001691447759626568</v>
       </c>
       <c r="Q30" t="n">
-        <v>478.4819684768059</v>
+        <v>477.0846993163296</v>
       </c>
       <c r="R30" t="n">
-        <v>0.35651</v>
+        <v>0.34377</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1.00003462156995</v>
+        <v>0.9999453604363472</v>
       </c>
       <c r="B31" t="n">
-        <v>15.95806583320837</v>
+        <v>15.86706855725496</v>
       </c>
       <c r="C31" t="n">
-        <v>-5.427720150267747e-05</v>
+        <v>-5.744093045402887e-05</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.06172892905719716</v>
+        <v>-0.06220377001837778</v>
       </c>
       <c r="E31" t="n">
-        <v>2.789245867095423e-06</v>
+        <v>2.584082748653284e-06</v>
       </c>
       <c r="F31" t="n">
-        <v>0.006990587583451417</v>
+        <v>0.007191507942532613</v>
       </c>
       <c r="G31" t="n">
-        <v>-8.989733095577547e-07</v>
+        <v>8.638245735211366e-07</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0004525906008983027</v>
+        <v>0.0004716079252241403</v>
       </c>
       <c r="I31" t="n">
-        <v>0.1094421270472366</v>
+        <v>0.111724873794172</v>
       </c>
       <c r="J31" t="n">
-        <v>0.0001399607863957067</v>
+        <v>0.0001820580870584357</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.0007102143974276971</v>
+        <v>-0.0006895303557171708</v>
       </c>
       <c r="L31" t="n">
-        <v>0.0005210120384930351</v>
+        <v>0.0004476258405072693</v>
       </c>
       <c r="M31" t="n">
-        <v>-6.647470600342067e-05</v>
+        <v>-8.39328983662515e-05</v>
       </c>
       <c r="N31" t="n">
-        <v>-3.8784977443715e-05</v>
+        <v>-3.872808729446256e-05</v>
       </c>
       <c r="O31" t="n">
-        <v>-0.0003995570179902424</v>
+        <v>-0.000386969047872151</v>
       </c>
       <c r="P31" t="n">
-        <v>0.0002687297608557474</v>
+        <v>0.0002200530436291204</v>
       </c>
       <c r="Q31" t="n">
-        <v>479.8461147548236</v>
+        <v>478.4819684768059</v>
       </c>
       <c r="R31" t="n">
-        <v>0.36925</v>
+        <v>0.35651</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1.000124235267656</v>
+        <v>1.00003462156995</v>
       </c>
       <c r="B32" t="n">
-        <v>16.04753394124556</v>
+        <v>15.95806583320837</v>
       </c>
       <c r="C32" t="n">
-        <v>-5.602852636972327e-05</v>
+        <v>-5.427720150267747e-05</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.06132779378993913</v>
+        <v>-0.06172892905719716</v>
       </c>
       <c r="E32" t="n">
-        <v>2.939808818429487e-06</v>
+        <v>2.789245867095423e-06</v>
       </c>
       <c r="F32" t="n">
-        <v>0.006797086347278452</v>
+        <v>0.006990587583451417</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.672301645017996e-06</v>
+        <v>-8.989733095577547e-07</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0004241241914260165</v>
+        <v>0.0004525906008983027</v>
       </c>
       <c r="I32" t="n">
-        <v>0.1070675524503924</v>
+        <v>0.1094421270472366</v>
       </c>
       <c r="J32" t="n">
-        <v>8.177919947674563e-05</v>
+        <v>0.0001399607863957067</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.0007313863207466447</v>
+        <v>-0.0007102143974276971</v>
       </c>
       <c r="L32" t="n">
-        <v>0.0004461611110092015</v>
+        <v>0.0005210120384930351</v>
       </c>
       <c r="M32" t="n">
-        <v>-5.100794761286675e-05</v>
+        <v>-6.647470600342067e-05</v>
       </c>
       <c r="N32" t="n">
-        <v>-3.890826413522455e-05</v>
+        <v>-3.8784977443715e-05</v>
       </c>
       <c r="O32" t="n">
-        <v>-0.0003980885149857863</v>
+        <v>-0.0003995570179902424</v>
       </c>
       <c r="P32" t="n">
-        <v>0.0003015985814775766</v>
+        <v>0.0002687297608557474</v>
       </c>
       <c r="Q32" t="n">
-        <v>481.1944888678519</v>
+        <v>479.8461147548236</v>
       </c>
       <c r="R32" t="n">
-        <v>0.38213</v>
+        <v>0.36925</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1.00021058985605</v>
+        <v>1.000124235267656</v>
       </c>
       <c r="B33" t="n">
-        <v>16.13466783500775</v>
+        <v>16.04753394124556</v>
       </c>
       <c r="C33" t="n">
-        <v>-6.128337845191721e-05</v>
+        <v>-5.602852636972327e-05</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.06097736965210614</v>
+        <v>-0.06132779378993913</v>
       </c>
       <c r="E33" t="n">
-        <v>3.061821716165092e-06</v>
+        <v>2.939808818429487e-06</v>
       </c>
       <c r="F33" t="n">
-        <v>0.006603238205690509</v>
+        <v>0.006797086347278452</v>
       </c>
       <c r="G33" t="n">
-        <v>-6.682093983417684e-06</v>
+        <v>-3.672301645017996e-06</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0004055167605150853</v>
+        <v>0.0004241241914260165</v>
       </c>
       <c r="I33" t="n">
-        <v>0.1046923726070875</v>
+        <v>0.1070675524503924</v>
       </c>
       <c r="J33" t="n">
-        <v>2.153431798272172e-05</v>
+        <v>8.177919947674563e-05</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.0007483676459517294</v>
+        <v>-0.0007313863207466447</v>
       </c>
       <c r="L33" t="n">
-        <v>0.0004492791019841493</v>
+        <v>0.0004461611110092015</v>
       </c>
       <c r="M33" t="n">
-        <v>-3.787545244700292e-05</v>
+        <v>-5.100794761286675e-05</v>
       </c>
       <c r="N33" t="n">
-        <v>-3.865922143623169e-05</v>
+        <v>-3.890826413522455e-05</v>
       </c>
       <c r="O33" t="n">
-        <v>-0.0004063777889818001</v>
+        <v>-0.0003980885149857863</v>
       </c>
       <c r="P33" t="n">
-        <v>0.0003361615982893956</v>
+        <v>0.0003015985814775766</v>
       </c>
       <c r="Q33" t="n">
-        <v>482.5151783044063</v>
+        <v>481.1944888678519</v>
       </c>
       <c r="R33" t="n">
-        <v>0.39501</v>
+        <v>0.38213</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1.000294186909582</v>
+        <v>1.00021058985605</v>
       </c>
       <c r="B34" t="n">
-        <v>16.21969399772579</v>
+        <v>16.13466783500775</v>
       </c>
       <c r="C34" t="n">
-        <v>-6.614796638051772e-05</v>
+        <v>-6.128337845191721e-05</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.06063368360657989</v>
+        <v>-0.06097736965210614</v>
       </c>
       <c r="E34" t="n">
-        <v>3.149079816458614e-06</v>
+        <v>3.061821716165092e-06</v>
       </c>
       <c r="F34" t="n">
-        <v>0.006420308192757536</v>
+        <v>0.006603238205690509</v>
       </c>
       <c r="G34" t="n">
-        <v>-9.309131562359419e-06</v>
+        <v>-6.682093983417684e-06</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0003854094731982867</v>
+        <v>0.0004055167605150853</v>
       </c>
       <c r="I34" t="n">
-        <v>0.1024379628536262</v>
+        <v>0.1046923726070875</v>
       </c>
       <c r="J34" t="n">
-        <v>-2.981536093929634e-05</v>
+        <v>2.153431798272172e-05</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.0007660118618530389</v>
+        <v>-0.0007483676459517294</v>
       </c>
       <c r="L34" t="n">
-        <v>0.0004644003069483196</v>
+        <v>0.0004492791019841493</v>
       </c>
       <c r="M34" t="n">
-        <v>-2.728837071601502e-05</v>
+        <v>-3.787545244700292e-05</v>
       </c>
       <c r="N34" t="n">
-        <v>-3.76365719656792e-05</v>
+        <v>-3.865922143623169e-05</v>
       </c>
       <c r="O34" t="n">
-        <v>-0.0004180703892375168</v>
+        <v>-0.0004063777889818001</v>
       </c>
       <c r="P34" t="n">
-        <v>0.0003617975044282938</v>
+        <v>0.0003361615982893956</v>
       </c>
       <c r="Q34" t="n">
-        <v>483.8107029290058</v>
+        <v>482.5151783044063</v>
       </c>
       <c r="R34" t="n">
-        <v>0.40789</v>
+        <v>0.39501</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.000375787224471</v>
+        <v>1.000294186909582</v>
       </c>
       <c r="B35" t="n">
-        <v>16.30280639276253</v>
+        <v>16.21969399772579</v>
       </c>
       <c r="C35" t="n">
-        <v>-6.736644109561655e-05</v>
+        <v>-6.614796638051772e-05</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.06023268078517676</v>
+        <v>-0.06063368360657989</v>
       </c>
       <c r="E35" t="n">
-        <v>3.203769240915992e-06</v>
+        <v>3.149079816458614e-06</v>
       </c>
       <c r="F35" t="n">
-        <v>0.006230456314664867</v>
+        <v>0.006420308192757536</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.10558146555893e-05</v>
+        <v>-9.309131562359419e-06</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0003640338159683174</v>
+        <v>0.0003854094731982867</v>
       </c>
       <c r="I35" t="n">
-        <v>0.1000008850496076</v>
+        <v>0.1024379628536262</v>
       </c>
       <c r="J35" t="n">
-        <v>-6.426684688796412e-05</v>
+        <v>-2.981536093929634e-05</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.0007853245823472723</v>
+        <v>-0.0007660118618530389</v>
       </c>
       <c r="L35" t="n">
-        <v>0.0004674116918183948</v>
+        <v>0.0004644003069483196</v>
       </c>
       <c r="M35" t="n">
-        <v>-1.96970272655508e-05</v>
+        <v>-2.728837071601502e-05</v>
       </c>
       <c r="N35" t="n">
-        <v>-3.574734473648286e-05</v>
+        <v>-3.76365719656792e-05</v>
       </c>
       <c r="O35" t="n">
-        <v>-0.0004262532731162843</v>
+        <v>-0.0004180703892375168</v>
       </c>
       <c r="P35" t="n">
-        <v>0.0003783523653546415</v>
+        <v>0.0003617975044282938</v>
       </c>
       <c r="Q35" t="n">
-        <v>485.0833368572484</v>
+        <v>483.8107029290058</v>
       </c>
       <c r="R35" t="n">
-        <v>0.42077</v>
+        <v>0.40789</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.000454001068376</v>
+        <v>1.000375787224471</v>
       </c>
       <c r="B36" t="n">
-        <v>16.38414723596741</v>
+        <v>16.30280639276253</v>
       </c>
       <c r="C36" t="n">
-        <v>-6.221852516462982e-05</v>
+        <v>-6.736644109561655e-05</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.05969019808652369</v>
+        <v>-0.06023268078517676</v>
       </c>
       <c r="E36" t="n">
-        <v>3.23469291492648e-06</v>
+        <v>3.203769240915992e-06</v>
       </c>
       <c r="F36" t="n">
-        <v>0.006044123483676339</v>
+        <v>0.006230456314664867</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.156092418803419e-05</v>
+        <v>-1.10558146555893e-05</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0003512344911426236</v>
+        <v>0.0003640338159683174</v>
       </c>
       <c r="I36" t="n">
-        <v>0.09761669421304105</v>
+        <v>0.1000008850496076</v>
       </c>
       <c r="J36" t="n">
-        <v>-7.698477458014692e-05</v>
+        <v>-6.426684688796412e-05</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.0008039901376067594</v>
+        <v>-0.0007853245823472723</v>
       </c>
       <c r="L36" t="n">
-        <v>0.0005309769304743495</v>
+        <v>0.0004674116918183948</v>
       </c>
       <c r="M36" t="n">
-        <v>-1.57385718227058e-05</v>
+        <v>-1.96970272655508e-05</v>
       </c>
       <c r="N36" t="n">
-        <v>-3.303632567241699e-05</v>
+        <v>-3.574734473648286e-05</v>
       </c>
       <c r="O36" t="n">
-        <v>-0.0004290287532123757</v>
+        <v>-0.0004262532731162843</v>
       </c>
       <c r="P36" t="n">
-        <v>0.000395656588278665</v>
+        <v>0.0003783523653546415</v>
       </c>
       <c r="Q36" t="n">
-        <v>486.3354739977636</v>
+        <v>485.0833368572484</v>
       </c>
       <c r="R36" t="n">
-        <v>0.43365</v>
+        <v>0.42077</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.000532119039586</v>
+        <v>1.000454001068376</v>
       </c>
       <c r="B37" t="n">
-        <v>16.46462714612386</v>
+        <v>16.38414723596741</v>
       </c>
       <c r="C37" t="n">
-        <v>-5.11938507990958e-05</v>
+        <v>-6.221852516462982e-05</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.05892231587030476</v>
+        <v>-0.05969019808652369</v>
       </c>
       <c r="E37" t="n">
-        <v>3.232781845250506e-06</v>
+        <v>3.23469291492648e-06</v>
       </c>
       <c r="F37" t="n">
-        <v>0.005867719391025642</v>
+        <v>0.006044123483676339</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.101266574089069e-05</v>
+        <v>-1.156092418803419e-05</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0003341722463474971</v>
+        <v>0.0003512344911426236</v>
       </c>
       <c r="I37" t="n">
-        <v>0.09528138254735842</v>
+        <v>0.09761669421304105</v>
       </c>
       <c r="J37" t="n">
-        <v>-7.275314350899047e-05</v>
+        <v>-7.698477458014692e-05</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.0008254069237384102</v>
+        <v>-0.0008039901376067594</v>
       </c>
       <c r="L37" t="n">
-        <v>0.0004925918936134384</v>
+        <v>0.0005309769304743495</v>
       </c>
       <c r="M37" t="n">
-        <v>-1.484377743572562e-05</v>
+        <v>-1.57385718227058e-05</v>
       </c>
       <c r="N37" t="n">
-        <v>-2.974746119642031e-05</v>
+        <v>-3.303632567241699e-05</v>
       </c>
       <c r="O37" t="n">
-        <v>-0.0004227243559846241</v>
+        <v>-0.0004290287532123757</v>
       </c>
       <c r="P37" t="n">
-        <v>0.0004020612971797589</v>
+        <v>0.000395656588278665</v>
       </c>
       <c r="Q37" t="n">
-        <v>487.580171512073</v>
+        <v>486.3354739977636</v>
       </c>
       <c r="R37" t="n">
-        <v>0.4466600000000001</v>
+        <v>0.43365</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.000607188765182</v>
+        <v>1.000532119039586</v>
       </c>
       <c r="B38" t="n">
-        <v>16.54345183873144</v>
+        <v>16.46462714612386</v>
       </c>
       <c r="C38" t="n">
-        <v>-3.662081815583302e-05</v>
+        <v>-5.11938507990958e-05</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.05789392660998338</v>
+        <v>-0.05892231587030476</v>
       </c>
       <c r="E38" t="n">
-        <v>3.237851275087157e-06</v>
+        <v>3.232781845250506e-06</v>
       </c>
       <c r="F38" t="n">
-        <v>0.005698340348065677</v>
+        <v>0.005867719391025642</v>
       </c>
       <c r="G38" t="n">
-        <v>-9.707944628036435e-06</v>
+        <v>-1.101266574089069e-05</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0003240872388992447</v>
+        <v>0.0003341722463474971</v>
       </c>
       <c r="I38" t="n">
-        <v>0.09305033347703302</v>
+        <v>0.09528138254735842</v>
       </c>
       <c r="J38" t="n">
-        <v>-5.804202400987792e-05</v>
+        <v>-7.275314350899047e-05</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.0008450290185781852</v>
+        <v>-0.0008254069237384102</v>
       </c>
       <c r="L38" t="n">
-        <v>0.0005091434510975845</v>
+        <v>0.0004925918936134384</v>
       </c>
       <c r="M38" t="n">
-        <v>-1.663002892044035e-05</v>
+        <v>-1.484377743572562e-05</v>
       </c>
       <c r="N38" t="n">
-        <v>-2.613523862335682e-05</v>
+        <v>-2.974746119642031e-05</v>
       </c>
       <c r="O38" t="n">
-        <v>-0.0004068844889941986</v>
+        <v>-0.0004227243559846241</v>
       </c>
       <c r="P38" t="n">
-        <v>0.0004109379140842268</v>
+        <v>0.0004020612971797589</v>
       </c>
       <c r="Q38" t="n">
-        <v>488.8059021316448</v>
+        <v>487.580171512073</v>
       </c>
       <c r="R38" t="n">
-        <v>0.45967</v>
+        <v>0.4466600000000001</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.000680569613135</v>
+        <v>1.000607188765182</v>
       </c>
       <c r="B39" t="n">
-        <v>16.62066642300195</v>
+        <v>16.54345183873144</v>
       </c>
       <c r="C39" t="n">
-        <v>-2.148704784262973e-05</v>
+        <v>-3.662081815583302e-05</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.05663133027915229</v>
+        <v>-0.05789392660998338</v>
       </c>
       <c r="E39" t="n">
-        <v>3.258879006772942e-06</v>
+        <v>3.237851275087157e-06</v>
       </c>
       <c r="F39" t="n">
-        <v>0.005543815693882142</v>
+        <v>0.005698340348065677</v>
       </c>
       <c r="G39" t="n">
-        <v>-8.553015511133604e-06</v>
+        <v>-9.707944628036435e-06</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0003129330709624101</v>
+        <v>0.0003240872388992447</v>
       </c>
       <c r="I39" t="n">
-        <v>0.09102012725233669</v>
+        <v>0.09305033347703302</v>
       </c>
       <c r="J39" t="n">
-        <v>-4.67945629795196e-05</v>
+        <v>-5.804202400987792e-05</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.0008629338620530938</v>
+        <v>-0.0008450290185781852</v>
       </c>
       <c r="L39" t="n">
-        <v>0.0005324822979347698</v>
+        <v>0.0005091434510975845</v>
       </c>
       <c r="M39" t="n">
-        <v>-1.989961497553981e-05</v>
+        <v>-1.663002892044035e-05</v>
       </c>
       <c r="N39" t="n">
-        <v>-2.288955416865035e-05</v>
+        <v>-2.613523862335682e-05</v>
       </c>
       <c r="O39" t="n">
-        <v>-0.0003820510950697412</v>
+        <v>-0.0004068844889941986</v>
       </c>
       <c r="P39" t="n">
-        <v>0.0004147547367053095</v>
+        <v>0.0004109379140842268</v>
       </c>
       <c r="Q39" t="n">
-        <v>490.0126399709105</v>
+        <v>488.8059021316448</v>
       </c>
       <c r="R39" t="n">
-        <v>0.47268</v>
+        <v>0.45967</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.000752988641475</v>
+        <v>1.000680569613135</v>
       </c>
       <c r="B40" t="n">
-        <v>16.69630205990403</v>
+        <v>16.62066642300195</v>
       </c>
       <c r="C40" t="n">
-        <v>-7.457292900609772e-06</v>
+        <v>-2.148704784262973e-05</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.05519235008751312</v>
+        <v>-0.05663133027915229</v>
       </c>
       <c r="E40" t="n">
-        <v>3.287134344941801e-06</v>
+        <v>3.258879006772942e-06</v>
       </c>
       <c r="F40" t="n">
-        <v>0.005383692715362124</v>
+        <v>0.005543815693882142</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.855196940564556e-06</v>
+        <v>-8.553015511133604e-06</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0003004969295723059</v>
+        <v>0.0003129330709624101</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0888429148860399</v>
+        <v>0.09102012725233669</v>
       </c>
       <c r="J40" t="n">
-        <v>-4.376890305502446e-05</v>
+        <v>-4.67945629795196e-05</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.000878208897982581</v>
+        <v>-0.0008629338620530938</v>
       </c>
       <c r="L40" t="n">
-        <v>0.00054518540877739</v>
+        <v>0.0005324822979347698</v>
       </c>
       <c r="M40" t="n">
-        <v>-2.33456694179381e-05</v>
+        <v>-1.989961497553981e-05</v>
       </c>
       <c r="N40" t="n">
-        <v>-2.048793900255223e-05</v>
+        <v>-2.288955416865035e-05</v>
       </c>
       <c r="O40" t="n">
-        <v>-0.0003504955237092017</v>
+        <v>-0.0003820510950697412</v>
       </c>
       <c r="P40" t="n">
-        <v>0.0004137330213905758</v>
+        <v>0.0004147547367053095</v>
       </c>
       <c r="Q40" t="n">
-        <v>491.2001686924482</v>
+        <v>490.0126399709105</v>
       </c>
       <c r="R40" t="n">
-        <v>0.48569</v>
+        <v>0.47268</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.00082223065677</v>
+        <v>1.000752988641475</v>
       </c>
       <c r="B41" t="n">
-        <v>16.77038739566152</v>
+        <v>16.69630205990403</v>
       </c>
       <c r="C41" t="n">
-        <v>5.073177401035221e-06</v>
+        <v>-7.457292900609772e-06</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.05366631103674244</v>
+        <v>-0.05519235008751312</v>
       </c>
       <c r="E41" t="n">
-        <v>3.290934548342752e-06</v>
+        <v>3.287134344941801e-06</v>
       </c>
       <c r="F41" t="n">
-        <v>0.005224779259165541</v>
+        <v>0.005383692715362124</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.350048552252029e-06</v>
+        <v>-7.855196940564556e-06</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0002930813191788656</v>
+        <v>0.0003004969295723059</v>
       </c>
       <c r="I41" t="n">
-        <v>0.08666855245195432</v>
+        <v>0.0888429148860399</v>
       </c>
       <c r="J41" t="n">
-        <v>-4.509073668903373e-05</v>
+        <v>-4.376890305502446e-05</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.0008893585221953643</v>
+        <v>-0.000878208897982581</v>
       </c>
       <c r="L41" t="n">
-        <v>0.000597251050472819</v>
+        <v>0.00054518540877739</v>
       </c>
       <c r="M41" t="n">
-        <v>-2.560602402446347e-05</v>
+        <v>-2.33456694179381e-05</v>
       </c>
       <c r="N41" t="n">
-        <v>-1.928132879203217e-05</v>
+        <v>-2.048793900255223e-05</v>
       </c>
       <c r="O41" t="n">
-        <v>-0.0003196871001647938</v>
+        <v>-0.0003504955237092017</v>
       </c>
       <c r="P41" t="n">
-        <v>0.0004146509386480123</v>
+        <v>0.0004137330213905758</v>
       </c>
       <c r="Q41" t="n">
-        <v>492.3688606260736</v>
+        <v>491.2001686924482</v>
       </c>
       <c r="R41" t="n">
-        <v>0.4987</v>
+        <v>0.48569</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.000888073549258</v>
+        <v>1.00082223065677</v>
       </c>
       <c r="B42" t="n">
-        <v>16.84357075023742</v>
+        <v>16.77038739566152</v>
       </c>
       <c r="C42" t="n">
-        <v>1.570780486829585e-05</v>
+        <v>5.073177401035221e-06</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.05210871246787219</v>
+        <v>-0.05366631103674244</v>
       </c>
       <c r="E42" t="n">
-        <v>3.26925049511977e-06</v>
+        <v>3.290934548342752e-06</v>
       </c>
       <c r="F42" t="n">
-        <v>0.005069990348065677</v>
+        <v>0.005224779259165541</v>
       </c>
       <c r="G42" t="n">
-        <v>-6.558357443980543e-06</v>
+        <v>-7.350048552252029e-06</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0002819691321226165</v>
+        <v>0.0002930813191788656</v>
       </c>
       <c r="I42" t="n">
-        <v>0.08450728327897734</v>
+        <v>0.08666855245195432</v>
       </c>
       <c r="J42" t="n">
-        <v>-4.118117774716356e-05</v>
+        <v>-4.509073668903373e-05</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.0008990331998394313</v>
+        <v>-0.0008893585221953643</v>
       </c>
       <c r="L42" t="n">
-        <v>0.0005762865025641338</v>
+        <v>0.000597251050472819</v>
       </c>
       <c r="M42" t="n">
-        <v>-2.669672812014232e-05</v>
+        <v>-2.560602402446347e-05</v>
       </c>
       <c r="N42" t="n">
-        <v>-1.896983948828847e-05</v>
+        <v>-1.928132879203217e-05</v>
       </c>
       <c r="O42" t="n">
-        <v>-0.0002851037787258366</v>
+        <v>-0.0003196871001647938</v>
       </c>
       <c r="P42" t="n">
-        <v>0.0004101256413801419</v>
+        <v>0.0004146509386480123</v>
       </c>
       <c r="Q42" t="n">
-        <v>493.5288761080982</v>
+        <v>492.3688606260736</v>
       </c>
       <c r="R42" t="n">
-        <v>0.51183</v>
+        <v>0.4987</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.000954599640126</v>
+        <v>1.000888073549258</v>
       </c>
       <c r="B43" t="n">
-        <v>16.91515516444245</v>
+        <v>16.84357075023742</v>
       </c>
       <c r="C43" t="n">
-        <v>2.309460478676189e-05</v>
+        <v>1.570780486829585e-05</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.05056701494804162</v>
+        <v>-0.05210871246787219</v>
       </c>
       <c r="E43" t="n">
-        <v>3.205440414888663e-06</v>
+        <v>3.26925049511977e-06</v>
       </c>
       <c r="F43" t="n">
-        <v>0.00491796750168691</v>
+        <v>0.005069990348065677</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.439348784581646e-06</v>
+        <v>-6.558357443980543e-06</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0002756732535249069</v>
+        <v>0.0002819691321226165</v>
       </c>
       <c r="I43" t="n">
-        <v>0.08239281264057578</v>
+        <v>0.08450728327897734</v>
       </c>
       <c r="J43" t="n">
-        <v>-2.981087462030484e-05</v>
+        <v>-4.118117774716356e-05</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.0009054319364659867</v>
+        <v>-0.0008990331998394313</v>
       </c>
       <c r="L43" t="n">
-        <v>0.0005921767307845379</v>
+        <v>0.0005762865025641338</v>
       </c>
       <c r="M43" t="n">
-        <v>-2.728537121638677e-05</v>
+        <v>-2.669672812014232e-05</v>
       </c>
       <c r="N43" t="n">
-        <v>-1.950413740326823e-05</v>
+        <v>-1.896983948828847e-05</v>
       </c>
       <c r="O43" t="n">
-        <v>-0.0002595396736953004</v>
+        <v>-0.0002851037787258366</v>
       </c>
       <c r="P43" t="n">
-        <v>0.0004081178398855244</v>
+        <v>0.0004101256413801419</v>
       </c>
       <c r="Q43" t="n">
-        <v>494.6677340065744</v>
+        <v>493.5288761080982</v>
       </c>
       <c r="R43" t="n">
-        <v>0.52496</v>
+        <v>0.51183</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.001017701304543</v>
+        <v>1.000954599640126</v>
       </c>
       <c r="B44" t="n">
-        <v>16.98507058467036</v>
+        <v>16.91515516444245</v>
       </c>
       <c r="C44" t="n">
-        <v>2.618970653083934e-05</v>
+        <v>2.309460478676189e-05</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.04904648437840506</v>
+        <v>-0.05056701494804162</v>
       </c>
       <c r="E44" t="n">
-        <v>3.139297851476045e-06</v>
+        <v>3.205440414888663e-06</v>
       </c>
       <c r="F44" t="n">
-        <v>0.004777500587606838</v>
+        <v>0.00491796750168691</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.996338068629101e-06</v>
+        <v>-5.439348784581646e-06</v>
       </c>
       <c r="H44" t="n">
-        <v>0.000269008673023801</v>
+        <v>0.0002756732535249069</v>
       </c>
       <c r="I44" t="n">
-        <v>0.08045230994152047</v>
+        <v>0.08239281264057578</v>
       </c>
       <c r="J44" t="n">
-        <v>-1.01556367646324e-05</v>
+        <v>-2.981087462030484e-05</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.0009096392873822288</v>
+        <v>-0.0009054319364659867</v>
       </c>
       <c r="L44" t="n">
-        <v>0.0006114971645667765</v>
+        <v>0.0005921767307845379</v>
       </c>
       <c r="M44" t="n">
-        <v>-2.824852956124732e-05</v>
+        <v>-2.728537121638677e-05</v>
       </c>
       <c r="N44" t="n">
-        <v>-2.00540715597822e-05</v>
+        <v>-1.950413740326823e-05</v>
       </c>
       <c r="O44" t="n">
-        <v>-0.0002401016675439065</v>
+        <v>-0.0002595396736953004</v>
       </c>
       <c r="P44" t="n">
-        <v>0.0004030657497956965</v>
+        <v>0.0004081178398855244</v>
       </c>
       <c r="Q44" t="n">
-        <v>495.7853642334285</v>
+        <v>494.6677340065744</v>
       </c>
       <c r="R44" t="n">
-        <v>0.53809</v>
+        <v>0.52496</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.001079360661269</v>
+        <v>1.001017701304543</v>
       </c>
       <c r="B45" t="n">
-        <v>17.05325220547808</v>
+        <v>16.98507058467036</v>
       </c>
       <c r="C45" t="n">
-        <v>2.487840735898702e-05</v>
+        <v>2.618970653083934e-05</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.04753724933008149</v>
+        <v>-0.04904648437840506</v>
       </c>
       <c r="E45" t="n">
-        <v>3.097612682003487e-06</v>
+        <v>3.139297851476045e-06</v>
       </c>
       <c r="F45" t="n">
-        <v>0.004630115876630679</v>
+        <v>0.004777500587606838</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.485519266143443e-06</v>
+        <v>-3.996338068629101e-06</v>
       </c>
       <c r="H45" t="n">
-        <v>0.000261893556122857</v>
+        <v>0.000269008673023801</v>
       </c>
       <c r="I45" t="n">
-        <v>0.07835981937571848</v>
+        <v>0.08045230994152047</v>
       </c>
       <c r="J45" t="n">
-        <v>1.342790164411206e-05</v>
+        <v>-1.01556367646324e-05</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.0009116016597784525</v>
+        <v>-0.0009096392873822288</v>
       </c>
       <c r="L45" t="n">
-        <v>0.00062235543012152</v>
+        <v>0.0006114971645667765</v>
       </c>
       <c r="M45" t="n">
-        <v>-3.016038687038552e-05</v>
+        <v>-2.824852956124732e-05</v>
       </c>
       <c r="N45" t="n">
-        <v>-2.005944531699842e-05</v>
+        <v>-2.00540715597822e-05</v>
       </c>
       <c r="O45" t="n">
-        <v>-0.0002246156610118802</v>
+        <v>-0.0002401016675439065</v>
       </c>
       <c r="P45" t="n">
-        <v>0.00039508295087485</v>
+        <v>0.0004030657497956965</v>
       </c>
       <c r="Q45" t="n">
-        <v>496.8798078743646</v>
+        <v>495.7853642334285</v>
       </c>
       <c r="R45" t="n">
-        <v>0.5512100000000001</v>
+        <v>0.53809</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.001139570681512</v>
+        <v>1.001079360661269</v>
       </c>
       <c r="B46" t="n">
-        <v>17.11961483793172</v>
+        <v>17.05325220547808</v>
       </c>
       <c r="C46" t="n">
-        <v>2.007975357140646e-05</v>
+        <v>2.487840735898702e-05</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.04601420719020999</v>
+        <v>-0.04753724933008149</v>
       </c>
       <c r="E46" t="n">
-        <v>3.092197331913237e-06</v>
+        <v>3.097612682003487e-06</v>
       </c>
       <c r="F46" t="n">
-        <v>0.004483504342386415</v>
+        <v>0.004630115876630679</v>
       </c>
       <c r="G46" t="n">
-        <v>-1.438619728758998e-06</v>
+        <v>-2.485519266143443e-06</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0002585286164331468</v>
+        <v>0.000261893556122857</v>
       </c>
       <c r="I46" t="n">
-        <v>0.07625424537349428</v>
+        <v>0.07835981937571848</v>
       </c>
       <c r="J46" t="n">
-        <v>3.125941583836279e-05</v>
+        <v>1.342790164411206e-05</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.0009102952384868422</v>
+        <v>-0.0009116016597784525</v>
       </c>
       <c r="L46" t="n">
-        <v>0.0006599525987530302</v>
+        <v>0.00062235543012152</v>
       </c>
       <c r="M46" t="n">
-        <v>-3.339609505780825e-05</v>
+        <v>-3.016038687038552e-05</v>
       </c>
       <c r="N46" t="n">
-        <v>-1.920648926317195e-05</v>
+        <v>-2.005944531699842e-05</v>
       </c>
       <c r="O46" t="n">
-        <v>-0.0002141218104660369</v>
+        <v>-0.0002246156610118802</v>
       </c>
       <c r="P46" t="n">
-        <v>0.0003894357172034445</v>
+        <v>0.00039508295087485</v>
       </c>
       <c r="Q46" t="n">
-        <v>497.9493064780076</v>
+        <v>496.8798078743646</v>
       </c>
       <c r="R46" t="n">
-        <v>0.56434</v>
+        <v>0.5512100000000001</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.001197382478632</v>
+        <v>1.001139570681512</v>
       </c>
       <c r="B47" t="n">
-        <v>17.18461577510371</v>
+        <v>17.11961483793172</v>
       </c>
       <c r="C47" t="n">
-        <v>1.333097047283423e-05</v>
+        <v>2.007975357140646e-05</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.04443905087206977</v>
+        <v>-0.04601420719020999</v>
       </c>
       <c r="E47" t="n">
-        <v>3.072015317642263e-06</v>
+        <v>3.092197331913237e-06</v>
       </c>
       <c r="F47" t="n">
-        <v>0.004335680145074225</v>
+        <v>0.004483504342386415</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.264088419646911e-07</v>
+        <v>-1.438619728758998e-06</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0002519504856690293</v>
+        <v>0.0002585286164331468</v>
       </c>
       <c r="I47" t="n">
-        <v>0.07407676813115409</v>
+        <v>0.07625424537349428</v>
       </c>
       <c r="J47" t="n">
-        <v>4.556075879987632e-05</v>
+        <v>3.125941583836279e-05</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.0009077307103982356</v>
+        <v>-0.0009102952384868422</v>
       </c>
       <c r="L47" t="n">
-        <v>0.0006435608199302119</v>
+        <v>0.0006599525987530302</v>
       </c>
       <c r="M47" t="n">
-        <v>-3.688329253503461e-05</v>
+        <v>-3.339609505780825e-05</v>
       </c>
       <c r="N47" t="n">
-        <v>-1.680196287824261e-05</v>
+        <v>-1.920648926317195e-05</v>
       </c>
       <c r="O47" t="n">
-        <v>-0.0001981285485974706</v>
+        <v>-0.0002141218104660369</v>
       </c>
       <c r="P47" t="n">
-        <v>0.0003805734778531107</v>
+        <v>0.0003894357172034445</v>
       </c>
       <c r="Q47" t="n">
-        <v>499.0010957101439</v>
+        <v>497.9493064780076</v>
       </c>
       <c r="R47" t="n">
-        <v>0.57757</v>
+        <v>0.56434</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.001254658681962</v>
+        <v>1.001197382478632</v>
       </c>
       <c r="B48" t="n">
-        <v>17.24769546283801</v>
+        <v>17.18461577510371</v>
       </c>
       <c r="C48" t="n">
-        <v>4.833852120508157e-06</v>
+        <v>1.333097047283423e-05</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.04280793879495301</v>
+        <v>-0.04443905087206977</v>
       </c>
       <c r="E48" t="n">
-        <v>3.031045713884953e-06</v>
+        <v>3.072015317642263e-06</v>
       </c>
       <c r="F48" t="n">
-        <v>0.004187650880004498</v>
+        <v>0.004335680145074225</v>
       </c>
       <c r="G48" t="n">
-        <v>-1.461533915457725e-07</v>
+        <v>-6.264088419646911e-07</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0002477146912411438</v>
+        <v>0.0002519504856690293</v>
       </c>
       <c r="I48" t="n">
-        <v>0.07186044242327685</v>
+        <v>0.07407676813115409</v>
       </c>
       <c r="J48" t="n">
-        <v>5.359948517028414e-05</v>
+        <v>4.556075879987632e-05</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.0009031402196574949</v>
+        <v>-0.0009077307103982356</v>
       </c>
       <c r="L48" t="n">
-        <v>0.000655283763017475</v>
+        <v>0.0006435608199302119</v>
       </c>
       <c r="M48" t="n">
-        <v>-4.059478506389951e-05</v>
+        <v>-3.688329253503461e-05</v>
       </c>
       <c r="N48" t="n">
-        <v>-1.309103166045009e-05</v>
+        <v>-1.680196287824261e-05</v>
       </c>
       <c r="O48" t="n">
-        <v>-0.0001802841123544728</v>
+        <v>-0.0001981285485974706</v>
       </c>
       <c r="P48" t="n">
-        <v>0.0003755184527792305</v>
+        <v>0.0003805734778531107</v>
       </c>
       <c r="Q48" t="n">
-        <v>500.0253245642913</v>
+        <v>499.0010957101439</v>
       </c>
       <c r="R48" t="n">
-        <v>0.5908</v>
+        <v>0.57757</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.001308046558705</v>
+        <v>1.001254658681962</v>
       </c>
       <c r="B49" t="n">
-        <v>17.30889037274454</v>
+        <v>17.24769546283801</v>
       </c>
       <c r="C49" t="n">
-        <v>-5.921472700023706e-06</v>
+        <v>4.833852120508157e-06</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.04111921137261333</v>
+        <v>-0.04280793879495301</v>
       </c>
       <c r="E49" t="n">
-        <v>2.987946391764788e-06</v>
+        <v>3.031045713884953e-06</v>
       </c>
       <c r="F49" t="n">
-        <v>0.004051514968511021</v>
+        <v>0.004187650880004498</v>
       </c>
       <c r="G49" t="n">
-        <v>1.603766898568942e-07</v>
+        <v>-1.461533915457725e-07</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0002424217269993315</v>
+        <v>0.0002477146912411438</v>
       </c>
       <c r="I49" t="n">
-        <v>0.06980561314477432</v>
+        <v>0.07186044242327685</v>
       </c>
       <c r="J49" t="n">
-        <v>5.731537152399788e-05</v>
+        <v>5.359948517028414e-05</v>
       </c>
       <c r="K49" t="n">
-        <v>-0.0008970875502948966</v>
+        <v>-0.0009031402196574949</v>
       </c>
       <c r="L49" t="n">
-        <v>0.0006713865623136588</v>
+        <v>0.000655283763017475</v>
       </c>
       <c r="M49" t="n">
-        <v>-4.426027168904946e-05</v>
+        <v>-4.059478506389951e-05</v>
       </c>
       <c r="N49" t="n">
-        <v>-8.512229639938524e-06</v>
+        <v>-1.309103166045009e-05</v>
       </c>
       <c r="O49" t="n">
-        <v>-0.0001623004712102936</v>
+        <v>-0.0001802841123544728</v>
       </c>
       <c r="P49" t="n">
-        <v>0.0003699018412876274</v>
+        <v>0.0003755184527792305</v>
       </c>
       <c r="Q49" t="n">
-        <v>501.0229543915564</v>
+        <v>500.0253245642913</v>
       </c>
       <c r="R49" t="n">
-        <v>0.6040300000000001</v>
+        <v>0.5908</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.001361470985155</v>
+        <v>1.001308046558705</v>
       </c>
       <c r="B50" t="n">
-        <v>17.36824772267206</v>
+        <v>17.30889037274454</v>
       </c>
       <c r="C50" t="n">
-        <v>-1.835713892012815e-05</v>
+        <v>-5.921472700023706e-06</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.03937705489803568</v>
+        <v>-0.04111921137261333</v>
       </c>
       <c r="E50" t="n">
-        <v>2.943145222298696e-06</v>
+        <v>2.987946391764788e-06</v>
       </c>
       <c r="F50" t="n">
-        <v>0.003913205246288799</v>
+        <v>0.004051514968511021</v>
       </c>
       <c r="G50" t="n">
-        <v>3.971634458839354e-07</v>
+        <v>1.603766898568942e-07</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0002358774320915704</v>
+        <v>0.0002424217269993315</v>
       </c>
       <c r="I50" t="n">
-        <v>0.06766715752611586</v>
+        <v>0.06980561314477432</v>
       </c>
       <c r="J50" t="n">
-        <v>5.847522121163839e-05</v>
+        <v>5.731537152399788e-05</v>
       </c>
       <c r="K50" t="n">
-        <v>-0.000889319173351827</v>
+        <v>-0.0008970875502948966</v>
       </c>
       <c r="L50" t="n">
-        <v>0.0006836189773918192</v>
+        <v>0.0006713865623136588</v>
       </c>
       <c r="M50" t="n">
-        <v>-4.770144413245989e-05</v>
+        <v>-4.426027168904946e-05</v>
       </c>
       <c r="N50" t="n">
-        <v>-3.544835998228744e-06</v>
+        <v>-8.512229639938524e-06</v>
       </c>
       <c r="O50" t="n">
-        <v>-0.0001437685490848047</v>
+        <v>-0.0001623004712102936</v>
       </c>
       <c r="P50" t="n">
-        <v>0.0003629595302929709</v>
+        <v>0.0003699018412876274</v>
       </c>
       <c r="Q50" t="n">
-        <v>501.9932731341763</v>
+        <v>501.0229543915564</v>
       </c>
       <c r="R50" t="n">
-        <v>0.61726</v>
+        <v>0.6040300000000001</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.001412238529015</v>
+        <v>1.001361470985155</v>
       </c>
       <c r="B51" t="n">
-        <v>17.42584702385415</v>
+        <v>17.36824772267206</v>
       </c>
       <c r="C51" t="n">
-        <v>-3.062663180777347e-05</v>
+        <v>-1.835713892012815e-05</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.03759147247191608</v>
+        <v>-0.03937705489803568</v>
       </c>
       <c r="E51" t="n">
-        <v>2.882002481054458e-06</v>
+        <v>2.943145222298696e-06</v>
       </c>
       <c r="F51" t="n">
-        <v>0.003783084226551957</v>
+        <v>0.003913205246288799</v>
       </c>
       <c r="G51" t="n">
-        <v>6.411338040345246e-07</v>
+        <v>3.971634458839354e-07</v>
       </c>
       <c r="H51" t="n">
-        <v>0.0002306546159159841</v>
+        <v>0.0002358774320915704</v>
       </c>
       <c r="I51" t="n">
-        <v>0.06563816658700704</v>
+        <v>0.06766715752611586</v>
       </c>
       <c r="J51" t="n">
-        <v>5.892001347653319e-05</v>
+        <v>5.847522121163839e-05</v>
       </c>
       <c r="K51" t="n">
-        <v>-0.0008788537304708975</v>
+        <v>-0.000889319173351827</v>
       </c>
       <c r="L51" t="n">
-        <v>0.0007179261561507769</v>
+        <v>0.0006836189773918192</v>
       </c>
       <c r="M51" t="n">
-        <v>-5.067121352128318e-05</v>
+        <v>-4.770144413245989e-05</v>
       </c>
       <c r="N51" t="n">
-        <v>1.326916974808818e-06</v>
+        <v>-3.544835998228744e-06</v>
       </c>
       <c r="O51" t="n">
-        <v>-0.0001231706487124543</v>
+        <v>-0.0001437685490848047</v>
       </c>
       <c r="P51" t="n">
-        <v>0.00035726782732436</v>
+        <v>0.0003629595302929709</v>
       </c>
       <c r="Q51" t="n">
-        <v>502.9372650521054</v>
+        <v>501.9932731341763</v>
       </c>
       <c r="R51" t="n">
-        <v>0.63049</v>
+        <v>0.61726</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.001460633153396</v>
+        <v>1.001412238529015</v>
       </c>
       <c r="B52" t="n">
-        <v>17.48209684422952</v>
+        <v>17.42584702385415</v>
       </c>
       <c r="C52" t="n">
-        <v>-3.924467464980977e-05</v>
+        <v>-3.062663180777347e-05</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.03576529105775322</v>
+        <v>-0.03759147247191608</v>
       </c>
       <c r="E52" t="n">
-        <v>2.816827909631973e-06</v>
+        <v>2.882002481054458e-06</v>
       </c>
       <c r="F52" t="n">
-        <v>0.00365702174988754</v>
+        <v>0.003783084226551957</v>
       </c>
       <c r="G52" t="n">
-        <v>8.807792950967156e-07</v>
+        <v>6.411338040345246e-07</v>
       </c>
       <c r="H52" t="n">
-        <v>0.0002228998028277603</v>
+        <v>0.0002306546159159841</v>
       </c>
       <c r="I52" t="n">
-        <v>0.0636425380960414</v>
+        <v>0.06563816658700704</v>
       </c>
       <c r="J52" t="n">
-        <v>5.843345456418374e-05</v>
+        <v>5.892001347653319e-05</v>
       </c>
       <c r="K52" t="n">
-        <v>-0.0008663600196493728</v>
+        <v>-0.0008788537304708975</v>
       </c>
       <c r="L52" t="n">
-        <v>0.000710967570605288</v>
+        <v>0.0007179261561507769</v>
       </c>
       <c r="M52" t="n">
-        <v>-5.25569811064721e-05</v>
+        <v>-5.067121352128318e-05</v>
       </c>
       <c r="N52" t="n">
-        <v>5.769922417966211e-06</v>
+        <v>1.326916974808818e-06</v>
       </c>
       <c r="O52" t="n">
-        <v>-0.000107123198006682</v>
+        <v>-0.0001231706487124543</v>
       </c>
       <c r="P52" t="n">
-        <v>0.0003481654797799832</v>
+        <v>0.00035726782732436</v>
       </c>
       <c r="Q52" t="n">
-        <v>503.8619838940286</v>
+        <v>502.9372650521054</v>
       </c>
       <c r="R52" t="n">
-        <v>0.6438</v>
+        <v>0.63049</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.00151122357175</v>
+        <v>1.001460633153396</v>
       </c>
       <c r="B53" t="n">
-        <v>17.53663189758585</v>
+        <v>17.48209684422952</v>
       </c>
       <c r="C53" t="n">
-        <v>-4.129858612766761e-05</v>
+        <v>-3.924467464980977e-05</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.03392356164867297</v>
+        <v>-0.03576529105775322</v>
       </c>
       <c r="E53" t="n">
-        <v>2.765733333647942e-06</v>
+        <v>2.816827909631973e-06</v>
       </c>
       <c r="F53" t="n">
-        <v>0.003529434831871345</v>
+        <v>0.00365702174988754</v>
       </c>
       <c r="G53" t="n">
-        <v>7.916050437471859e-07</v>
+        <v>8.807792950967156e-07</v>
       </c>
       <c r="H53" t="n">
-        <v>0.0002172790403872707</v>
+        <v>0.0002228998028277603</v>
       </c>
       <c r="I53" t="n">
-        <v>0.06160334520417854</v>
+        <v>0.0636425380960414</v>
       </c>
       <c r="J53" t="n">
-        <v>5.115384079103562e-05</v>
+        <v>5.843345456418374e-05</v>
       </c>
       <c r="K53" t="n">
-        <v>-0.0008509085165192181</v>
+        <v>-0.0008663600196493728</v>
       </c>
       <c r="L53" t="n">
-        <v>0.0007236607082324311</v>
+        <v>0.000710967570605288</v>
       </c>
       <c r="M53" t="n">
-        <v>-5.290822529767081e-05</v>
+        <v>-5.25569811064721e-05</v>
       </c>
       <c r="N53" t="n">
-        <v>9.576069922967586e-06</v>
+        <v>5.769922417966211e-06</v>
       </c>
       <c r="O53" t="n">
-        <v>-9.17918955740647e-05</v>
+        <v>-0.000107123198006682</v>
       </c>
       <c r="P53" t="n">
-        <v>0.0003405515409505111</v>
+        <v>0.0003481654797799832</v>
       </c>
       <c r="Q53" t="n">
-        <v>504.7595580876804</v>
+        <v>503.8619838940286</v>
       </c>
       <c r="R53" t="n">
-        <v>0.6571199999999999</v>
+        <v>0.6438</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.001555392487629</v>
+        <v>1.00151122357175</v>
       </c>
       <c r="B54" t="n">
-        <v>17.58945069225771</v>
+        <v>17.53663189758585</v>
       </c>
       <c r="C54" t="n">
-        <v>-3.71634551328912e-05</v>
+        <v>-4.129858612766761e-05</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.03206523130801719</v>
+        <v>-0.03392356164867297</v>
       </c>
       <c r="E54" t="n">
-        <v>2.730183520920491e-06</v>
+        <v>2.765733333647942e-06</v>
       </c>
       <c r="F54" t="n">
-        <v>0.003408047888551507</v>
+        <v>0.003529434831871345</v>
       </c>
       <c r="G54" t="n">
-        <v>4.206535608130868e-07</v>
+        <v>7.916050437471859e-07</v>
       </c>
       <c r="H54" t="n">
-        <v>0.000211287590830881</v>
+        <v>0.0002172790403872707</v>
       </c>
       <c r="I54" t="n">
-        <v>0.0596536559391713</v>
+        <v>0.06160334520417854</v>
       </c>
       <c r="J54" t="n">
-        <v>3.848618153927371e-05</v>
+        <v>5.115384079103562e-05</v>
       </c>
       <c r="K54" t="n">
-        <v>-0.0008330599219491928</v>
+        <v>-0.0008509085165192181</v>
       </c>
       <c r="L54" t="n">
-        <v>0.0007385833772895111</v>
+        <v>0.0007236607082324311</v>
       </c>
       <c r="M54" t="n">
-        <v>-5.218451269864923e-05</v>
+        <v>-5.290822529767081e-05</v>
       </c>
       <c r="N54" t="n">
-        <v>1.257677873580184e-05</v>
+        <v>9.576069922967586e-06</v>
       </c>
       <c r="O54" t="n">
-        <v>-7.525715859049332e-05</v>
+        <v>-9.17918955740647e-05</v>
       </c>
       <c r="P54" t="n">
-        <v>0.0003320882391467674</v>
+        <v>0.0003405515409505111</v>
       </c>
       <c r="Q54" t="n">
-        <v>505.6328150723321</v>
+        <v>504.7595580876804</v>
       </c>
       <c r="R54" t="n">
-        <v>0.6704399999999999</v>
+        <v>0.6571199999999999</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.001599631691408</v>
+        <v>1.001555392487629</v>
       </c>
       <c r="B55" t="n">
-        <v>17.64054426263307</v>
+        <v>17.58945069225771</v>
       </c>
       <c r="C55" t="n">
-        <v>-2.867795477676578e-05</v>
+        <v>-3.71634551328912e-05</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.03018246439432605</v>
+        <v>-0.03206523130801719</v>
       </c>
       <c r="E55" t="n">
-        <v>2.70099868153565e-06</v>
+        <v>2.730183520920491e-06</v>
       </c>
       <c r="F55" t="n">
-        <v>0.003276156525528565</v>
+        <v>0.003408047888551507</v>
       </c>
       <c r="G55" t="n">
-        <v>-1.999924140547668e-07</v>
+        <v>4.206535608130868e-07</v>
       </c>
       <c r="H55" t="n">
-        <v>0.0002049153976711151</v>
+        <v>0.000211287590830881</v>
       </c>
       <c r="I55" t="n">
-        <v>0.05749719013970111</v>
+        <v>0.0596536559391713</v>
       </c>
       <c r="J55" t="n">
-        <v>2.146415289031648e-05</v>
+        <v>3.848618153927371e-05</v>
       </c>
       <c r="K55" t="n">
-        <v>-0.0008130941348652972</v>
+        <v>-0.0008330599219491928</v>
       </c>
       <c r="L55" t="n">
-        <v>0.000748818633762558</v>
+        <v>0.0007385833772895111</v>
       </c>
       <c r="M55" t="n">
-        <v>-5.078724036142038e-05</v>
+        <v>-5.218451269864923e-05</v>
       </c>
       <c r="N55" t="n">
-        <v>1.464010728006136e-05</v>
+        <v>1.257677873580184e-05</v>
       </c>
       <c r="O55" t="n">
-        <v>-5.674937593737504e-05</v>
+        <v>-7.525715859049332e-05</v>
       </c>
       <c r="P55" t="n">
-        <v>0.0003231698595883159</v>
+        <v>0.0003320882391467674</v>
       </c>
       <c r="Q55" t="n">
-        <v>506.4790284849158</v>
+        <v>505.6328150723321</v>
       </c>
       <c r="R55" t="n">
-        <v>0.68375</v>
+        <v>0.6704399999999999</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.001645095310392</v>
+        <v>1.001599631691408</v>
       </c>
       <c r="B56" t="n">
-        <v>17.6898741065627</v>
+        <v>17.64054426263307</v>
       </c>
       <c r="C56" t="n">
-        <v>-1.913027119047398e-05</v>
+        <v>-2.867795477676578e-05</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.02826075539792479</v>
+        <v>-0.03018246439432605</v>
       </c>
       <c r="E56" t="n">
-        <v>2.662701301593005e-06</v>
+        <v>2.70099868153565e-06</v>
       </c>
       <c r="F56" t="n">
-        <v>0.003142468534637877</v>
+        <v>0.003276156525528565</v>
       </c>
       <c r="G56" t="n">
-        <v>-1.063254400725373e-06</v>
+        <v>-1.999924140547668e-07</v>
       </c>
       <c r="H56" t="n">
-        <v>0.0002003983011607187</v>
+        <v>0.0002049153976711151</v>
       </c>
       <c r="I56" t="n">
-        <v>0.05529143165517068</v>
+        <v>0.05749719013970111</v>
       </c>
       <c r="J56" t="n">
-        <v>4.722306217823832e-07</v>
+        <v>2.146415289031648e-05</v>
       </c>
       <c r="K56" t="n">
-        <v>-0.0007910731784500425</v>
+        <v>-0.0008130941348652972</v>
       </c>
       <c r="L56" t="n">
-        <v>0.0007731885755921287</v>
+        <v>0.000748818633762558</v>
       </c>
       <c r="M56" t="n">
-        <v>-4.903916658054056e-05</v>
+        <v>-5.078724036142038e-05</v>
       </c>
       <c r="N56" t="n">
-        <v>1.568715459107594e-05</v>
+        <v>1.464010728006136e-05</v>
       </c>
       <c r="O56" t="n">
-        <v>-3.895656223615485e-05</v>
+        <v>-5.674937593737504e-05</v>
       </c>
       <c r="P56" t="n">
-        <v>0.0003166145137939533</v>
+        <v>0.0003231698595883159</v>
       </c>
       <c r="Q56" t="n">
-        <v>507.2969857233885</v>
+        <v>506.4790284849158</v>
       </c>
       <c r="R56" t="n">
-        <v>0.69707</v>
+        <v>0.68375</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.001681382141251</v>
+        <v>1.001645095310392</v>
       </c>
       <c r="B57" t="n">
-        <v>17.73767795334133</v>
+        <v>17.6898741065627</v>
       </c>
       <c r="C57" t="n">
-        <v>-1.069974618477258e-05</v>
+        <v>-1.913027119047398e-05</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.02628280142254899</v>
+        <v>-0.02826075539792479</v>
       </c>
       <c r="E57" t="n">
-        <v>2.612641936736955e-06</v>
+        <v>2.662701301593005e-06</v>
       </c>
       <c r="F57" t="n">
-        <v>0.003007071927013046</v>
+        <v>0.003142468534637877</v>
       </c>
       <c r="G57" t="n">
-        <v>-1.889614266447371e-06</v>
+        <v>-1.063254400725373e-06</v>
       </c>
       <c r="H57" t="n">
-        <v>0.0001942829133639632</v>
+        <v>0.0002003983011607187</v>
       </c>
       <c r="I57" t="n">
-        <v>0.05303078039873543</v>
+        <v>0.05529143165517068</v>
       </c>
       <c r="J57" t="n">
-        <v>-1.981581724777579e-05</v>
+        <v>4.722306217823832e-07</v>
       </c>
       <c r="K57" t="n">
-        <v>-0.0007678057971897336</v>
+        <v>-0.0007910731784500425</v>
       </c>
       <c r="L57" t="n">
-        <v>0.000768332540353064</v>
+        <v>0.0007731885755921287</v>
       </c>
       <c r="M57" t="n">
-        <v>-4.714478376835452e-05</v>
+        <v>-4.903916658054056e-05</v>
       </c>
       <c r="N57" t="n">
-        <v>1.624835890778696e-05</v>
+        <v>1.568715459107594e-05</v>
       </c>
       <c r="O57" t="n">
-        <v>-2.208411379430637e-05</v>
+        <v>-3.895656223615485e-05</v>
       </c>
       <c r="P57" t="n">
-        <v>0.0003083790554590112</v>
+        <v>0.0003166145137939533</v>
       </c>
       <c r="Q57" t="n">
-        <v>508.0939117219272</v>
+        <v>507.2969857233885</v>
       </c>
       <c r="R57" t="n">
-        <v>0.7104600000000001</v>
+        <v>0.69707</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.001725019680612</v>
+        <v>1.001681382141251</v>
       </c>
       <c r="B58" t="n">
-        <v>17.78365448655471</v>
+        <v>17.73767795334133</v>
       </c>
       <c r="C58" t="n">
-        <v>-3.479486231381772e-06</v>
+        <v>-1.069974618477258e-05</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.02424496896828141</v>
+        <v>-0.02628280142254899</v>
       </c>
       <c r="E58" t="n">
-        <v>2.567919690921615e-06</v>
+        <v>2.612641936736955e-06</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002868443356387764</v>
+        <v>0.003007071927013046</v>
       </c>
       <c r="G58" t="n">
-        <v>-2.547410864063202e-06</v>
+        <v>-1.889614266447371e-06</v>
       </c>
       <c r="H58" t="n">
-        <v>0.0001902707153226527</v>
+        <v>0.0001942829133639632</v>
       </c>
       <c r="I58" t="n">
-        <v>0.05069977000237418</v>
+        <v>0.05303078039873543</v>
       </c>
       <c r="J58" t="n">
-        <v>-3.722844374804757e-05</v>
+        <v>-1.981581724777579e-05</v>
       </c>
       <c r="K58" t="n">
-        <v>-0.0007431585113960114</v>
+        <v>-0.0007678057971897336</v>
       </c>
       <c r="L58" t="n">
-        <v>0.0007775628981155034</v>
+        <v>0.000768332540353064</v>
       </c>
       <c r="M58" t="n">
-        <v>-4.548996616159344e-05</v>
+        <v>-4.714478376835452e-05</v>
       </c>
       <c r="N58" t="n">
-        <v>1.63910295303675e-05</v>
+        <v>1.624835890778696e-05</v>
       </c>
       <c r="O58" t="n">
-        <v>-1.170097121758947e-05</v>
+        <v>-2.208411379430637e-05</v>
       </c>
       <c r="P58" t="n">
-        <v>0.0003021087526375768</v>
+        <v>0.0003083790554590112</v>
       </c>
       <c r="Q58" t="n">
-        <v>508.8591957983294</v>
+        <v>508.0939117219272</v>
       </c>
       <c r="R58" t="n">
-        <v>0.72385</v>
+        <v>0.7104600000000001</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.001761645299145</v>
+        <v>1.001725019680612</v>
       </c>
       <c r="B59" t="n">
-        <v>17.82779905158195</v>
+        <v>17.78365448655471</v>
       </c>
       <c r="C59" t="n">
-        <v>2.141460378867337e-06</v>
+        <v>-3.479486231381772e-06</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.02212900127094111</v>
+        <v>-0.02424496896828141</v>
       </c>
       <c r="E59" t="n">
-        <v>2.524518631749888e-06</v>
+        <v>2.567919690921615e-06</v>
       </c>
       <c r="F59" t="n">
-        <v>0.002737367650697256</v>
+        <v>0.002868443356387764</v>
       </c>
       <c r="G59" t="n">
-        <v>-2.834662405617406e-06</v>
+        <v>-2.547410864063202e-06</v>
       </c>
       <c r="H59" t="n">
-        <v>0.0001865105230877006</v>
+        <v>0.0001902707153226527</v>
       </c>
       <c r="I59" t="n">
-        <v>0.04848768145211675</v>
+        <v>0.05069977000237418</v>
       </c>
       <c r="J59" t="n">
-        <v>-4.81743687359424e-05</v>
+        <v>-3.722844374804757e-05</v>
       </c>
       <c r="K59" t="n">
-        <v>-0.0007175560378867397</v>
+        <v>-0.0007431585113960114</v>
       </c>
       <c r="L59" t="n">
-        <v>0.0007886692298975046</v>
+        <v>0.0007775628981155034</v>
       </c>
       <c r="M59" t="n">
-        <v>-4.442642925904683e-05</v>
+        <v>-4.548996616159344e-05</v>
       </c>
       <c r="N59" t="n">
-        <v>1.62354768542229e-05</v>
+        <v>1.63910295303675e-05</v>
       </c>
       <c r="O59" t="n">
-        <v>-6.171671286206078e-06</v>
+        <v>-1.170097121758947e-05</v>
       </c>
       <c r="P59" t="n">
-        <v>0.0002955685073734424</v>
+        <v>0.0003021087526375768</v>
       </c>
       <c r="Q59" t="n">
-        <v>509.5971253143663</v>
+        <v>508.8591957983294</v>
       </c>
       <c r="R59" t="n">
-        <v>0.7372300000000001</v>
+        <v>0.72385</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.001794787449393</v>
+        <v>1.001761645299145</v>
       </c>
       <c r="B60" t="n">
-        <v>17.8701159594142</v>
+        <v>17.82779905158195</v>
       </c>
       <c r="C60" t="n">
-        <v>5.850486432873599e-06</v>
+        <v>2.141460378867337e-06</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.01992531632843973</v>
+        <v>-0.02212900127094111</v>
       </c>
       <c r="E60" t="n">
-        <v>2.480557837843005e-06</v>
+        <v>2.524518631749888e-06</v>
       </c>
       <c r="F60" t="n">
-        <v>0.002599215083783176</v>
+        <v>0.002737367650697256</v>
       </c>
       <c r="G60" t="n">
-        <v>-2.686914544112682e-06</v>
+        <v>-2.834662405617406e-06</v>
       </c>
       <c r="H60" t="n">
-        <v>0.0001830917394972072</v>
+        <v>0.0001865105230877006</v>
       </c>
       <c r="I60" t="n">
-        <v>0.04613266751949317</v>
+        <v>0.04848768145211675</v>
       </c>
       <c r="J60" t="n">
-        <v>-5.145364379763963e-05</v>
+        <v>-4.81743687359424e-05</v>
       </c>
       <c r="K60" t="n">
-        <v>-0.000690928459414205</v>
+        <v>-0.0007175560378867397</v>
       </c>
       <c r="L60" t="n">
-        <v>0.0007964838189599264</v>
+        <v>0.0007886692298975046</v>
       </c>
       <c r="M60" t="n">
-        <v>-4.391156561020829e-05</v>
+        <v>-4.442642925904683e-05</v>
       </c>
       <c r="N60" t="n">
-        <v>1.575679072722984e-05</v>
+        <v>1.62354768542229e-05</v>
       </c>
       <c r="O60" t="n">
-        <v>-2.693984625396737e-06</v>
+        <v>-6.171671286206078e-06</v>
       </c>
       <c r="P60" t="n">
-        <v>0.0002887980846071688</v>
+        <v>0.0002955685073734424</v>
       </c>
       <c r="Q60" t="n">
-        <v>510.3062401059567</v>
+        <v>509.5971253143663</v>
       </c>
       <c r="R60" t="n">
-        <v>0.75062</v>
+        <v>0.7372300000000001</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.001832148279352</v>
+        <v>1.001794787449393</v>
       </c>
       <c r="B61" t="n">
-        <v>17.91059019968012</v>
+        <v>17.8701159594142</v>
       </c>
       <c r="C61" t="n">
-        <v>7.376955529627223e-06</v>
+        <v>5.850486432873599e-06</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.01763296989133803</v>
+        <v>-0.01992531632843973</v>
       </c>
       <c r="E61" t="n">
-        <v>2.436600731005398e-06</v>
+        <v>2.480557837843005e-06</v>
       </c>
       <c r="F61" t="n">
-        <v>0.002464159163573999</v>
+        <v>0.002599215083783176</v>
       </c>
       <c r="G61" t="n">
-        <v>-2.151934357883488e-06</v>
+        <v>-2.686914544112682e-06</v>
       </c>
       <c r="H61" t="n">
-        <v>0.0001817958729374227</v>
+        <v>0.0001830917394972072</v>
       </c>
       <c r="I61" t="n">
-        <v>0.04381798130810466</v>
+        <v>0.04613266751949317</v>
       </c>
       <c r="J61" t="n">
-        <v>-4.77100822002143e-05</v>
+        <v>-5.145364379763963e-05</v>
       </c>
       <c r="K61" t="n">
-        <v>-0.0006627820390988154</v>
+        <v>-0.000690928459414205</v>
       </c>
       <c r="L61" t="n">
-        <v>0.0008145710981909458</v>
+        <v>0.0007964838189599264</v>
       </c>
       <c r="M61" t="n">
-        <v>-4.351963014352009e-05</v>
+        <v>-4.391156561020829e-05</v>
       </c>
       <c r="N61" t="n">
-        <v>1.485117303225106e-05</v>
+        <v>1.575679072722984e-05</v>
       </c>
       <c r="O61" t="n">
-        <v>1.570716202641576e-06</v>
+        <v>-2.693984625396737e-06</v>
       </c>
       <c r="P61" t="n">
-        <v>0.0002838679741816536</v>
+        <v>0.0002887980846071688</v>
       </c>
       <c r="Q61" t="n">
-        <v>510.9839744944879</v>
+        <v>510.3062401059567</v>
       </c>
       <c r="R61" t="n">
-        <v>0.7640100000000001</v>
+        <v>0.75062</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.001863247863248</v>
+        <v>1.001832148279352</v>
       </c>
       <c r="B62" t="n">
-        <v>17.94937307879742</v>
+        <v>17.91059019968012</v>
       </c>
       <c r="C62" t="n">
-        <v>7.416536932386358e-06</v>
+        <v>7.376955529627223e-06</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.01525577735125519</v>
+        <v>-0.01763296989133803</v>
       </c>
       <c r="E62" t="n">
-        <v>2.395738488226495e-06</v>
+        <v>2.436600731005398e-06</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0023286765317139</v>
+        <v>0.002464159163573999</v>
       </c>
       <c r="G62" t="n">
-        <v>-1.387114538180396e-06</v>
+        <v>-2.151934357883488e-06</v>
       </c>
       <c r="H62" t="n">
-        <v>0.0001802809790609224</v>
+        <v>0.0001817958729374227</v>
       </c>
       <c r="I62" t="n">
-        <v>0.041478577388539</v>
+        <v>0.04381798130810466</v>
       </c>
       <c r="J62" t="n">
-        <v>-3.911395853201378e-05</v>
+        <v>-4.77100822002143e-05</v>
       </c>
       <c r="K62" t="n">
-        <v>-0.0006332332222315939</v>
+        <v>-0.0006627820390988154</v>
       </c>
       <c r="L62" t="n">
-        <v>0.0008100433943452604</v>
+        <v>0.0008145710981909458</v>
       </c>
       <c r="M62" t="n">
-        <v>-4.287762576219104e-05</v>
+        <v>-4.351963014352009e-05</v>
       </c>
       <c r="N62" t="n">
-        <v>1.349235949041273e-05</v>
+        <v>1.485117303225106e-05</v>
       </c>
       <c r="O62" t="n">
-        <v>1.00866452263614e-05</v>
+        <v>1.570716202641576e-06</v>
       </c>
       <c r="P62" t="n">
-        <v>0.0002773267334853426</v>
+        <v>0.0002838679741816536</v>
       </c>
       <c r="Q62" t="n">
-        <v>511.6358139507406</v>
+        <v>510.9839744944879</v>
       </c>
       <c r="R62" t="n">
-        <v>0.77746</v>
+        <v>0.7640100000000001</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.001892417341431</v>
+        <v>1.001863247863248</v>
       </c>
       <c r="B63" t="n">
-        <v>17.98624964075074</v>
+        <v>17.94937307879742</v>
       </c>
       <c r="C63" t="n">
-        <v>7.725646679912288e-06</v>
+        <v>7.416536932386358e-06</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.01282614644061453</v>
+        <v>-0.01525577735125519</v>
       </c>
       <c r="E63" t="n">
-        <v>2.357792957887708e-06</v>
+        <v>2.395738488226495e-06</v>
       </c>
       <c r="F63" t="n">
-        <v>0.002192951056567701</v>
+        <v>0.0023286765317139</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.58063248172514e-07</v>
+        <v>-1.387114538180396e-06</v>
       </c>
       <c r="H63" t="n">
-        <v>0.0001809694022760784</v>
+        <v>0.0001802809790609224</v>
       </c>
       <c r="I63" t="n">
-        <v>0.03911919935834958</v>
+        <v>0.041478577388539</v>
       </c>
       <c r="J63" t="n">
-        <v>-2.993253545290398e-05</v>
+        <v>-3.911395853201378e-05</v>
       </c>
       <c r="K63" t="n">
-        <v>-0.0006021359487616834</v>
+        <v>-0.0006332332222315939</v>
       </c>
       <c r="L63" t="n">
-        <v>0.0008166510815480206</v>
+        <v>0.0008100433943452604</v>
       </c>
       <c r="M63" t="n">
-        <v>-4.185068843514145e-05</v>
+        <v>-4.287762576219104e-05</v>
       </c>
       <c r="N63" t="n">
-        <v>1.178490534280189e-05</v>
+        <v>1.349235949041273e-05</v>
       </c>
       <c r="O63" t="n">
-        <v>2.068630204838306e-05</v>
+        <v>1.00866452263614e-05</v>
       </c>
       <c r="P63" t="n">
-        <v>0.0002718760826381391</v>
+        <v>0.0002773267334853426</v>
       </c>
       <c r="Q63" t="n">
-        <v>512.256979407239</v>
+        <v>511.6358139507406</v>
       </c>
       <c r="R63" t="n">
-        <v>0.7909</v>
+        <v>0.77746</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.001922655195681</v>
+        <v>1.001892417341431</v>
       </c>
       <c r="B64" t="n">
-        <v>18.02120773354326</v>
+        <v>17.98624964075074</v>
       </c>
       <c r="C64" t="n">
-        <v>8.57847655508067e-06</v>
+        <v>7.725646679912288e-06</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.01036491922603651</v>
+        <v>-0.01282614644061453</v>
       </c>
       <c r="E64" t="n">
-        <v>2.309465257180893e-06</v>
+        <v>2.357792957887708e-06</v>
       </c>
       <c r="F64" t="n">
-        <v>0.002065518783175889</v>
+        <v>0.002192951056567701</v>
       </c>
       <c r="G64" t="n">
-        <v>-9.961760568488846e-08</v>
+        <v>-6.58063248172514e-07</v>
       </c>
       <c r="H64" t="n">
-        <v>0.0001819067495561194</v>
+        <v>0.0001809694022760784</v>
       </c>
       <c r="I64" t="n">
-        <v>0.03689578700579797</v>
+        <v>0.03911919935834958</v>
       </c>
       <c r="J64" t="n">
-        <v>-2.276480332230598e-05</v>
+        <v>-2.993253545290398e-05</v>
       </c>
       <c r="K64" t="n">
-        <v>-0.000569666804602764</v>
+        <v>-0.0006021359487616834</v>
       </c>
       <c r="L64" t="n">
-        <v>0.0008241561377986455</v>
+        <v>0.0008166510815480206</v>
       </c>
       <c r="M64" t="n">
-        <v>-4.051939991318663e-05</v>
+        <v>-4.185068843514145e-05</v>
       </c>
       <c r="N64" t="n">
-        <v>9.934312650369246e-06</v>
+        <v>1.178490534280189e-05</v>
       </c>
       <c r="O64" t="n">
-        <v>3.222203272617084e-05</v>
+        <v>2.068630204838306e-05</v>
       </c>
       <c r="P64" t="n">
-        <v>0.0002656334050627108</v>
+        <v>0.0002718760826381391</v>
       </c>
       <c r="Q64" t="n">
-        <v>512.8461961508186</v>
+        <v>512.256979407239</v>
       </c>
       <c r="R64" t="n">
-        <v>0.80435</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>1.001950539811066</v>
-      </c>
-      <c r="B65" t="n">
-        <v>18.05422214724846</v>
-      </c>
-      <c r="C65" t="n">
-        <v>9.684803865522214e-06</v>
-      </c>
-      <c r="D65" t="n">
-        <v>-0.007891144793493995</v>
-      </c>
-      <c r="E65" t="n">
-        <v>2.257495697203638e-06</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0.001930112906826361</v>
-      </c>
-      <c r="G65" t="n">
-        <v>2.198829480482437e-07</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0.0001828387424397945</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0.03451837511558455</v>
-      </c>
-      <c r="J65" t="n">
-        <v>-1.903646027879306e-05</v>
-      </c>
-      <c r="K65" t="n">
-        <v>-0.000535950467699274</v>
-      </c>
-      <c r="L65" t="n">
-        <v>0.0008285651361249188</v>
-      </c>
-      <c r="M65" t="n">
-        <v>-3.897511154916091e-05</v>
-      </c>
-      <c r="N65" t="n">
-        <v>8.212108902769967e-06</v>
-      </c>
-      <c r="O65" t="n">
-        <v>4.342686215148292e-05</v>
-      </c>
-      <c r="P65" t="n">
-        <v>0.0002584154646338313</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>513.4034987056658</v>
-      </c>
-      <c r="R65" t="n">
-        <v>0.81779</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>1.001971188990104</v>
-      </c>
-      <c r="B66" t="n">
-        <v>18.08526021361273</v>
-      </c>
-      <c r="C66" t="n">
-        <v>1.021046620753832e-05</v>
-      </c>
-      <c r="D66" t="n">
-        <v>-0.005422069372774997</v>
-      </c>
-      <c r="E66" t="n">
-        <v>2.227839493492698e-06</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0.001794778976172402</v>
-      </c>
-      <c r="G66" t="n">
-        <v>3.160829180859207e-07</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0.0001850818015589153</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0.03213629565427881</v>
-      </c>
-      <c r="J66" t="n">
-        <v>-1.865944248872265e-05</v>
-      </c>
-      <c r="K66" t="n">
-        <v>-0.0005010977721572449</v>
-      </c>
-      <c r="L66" t="n">
-        <v>0.0008406969341876435</v>
-      </c>
-      <c r="M66" t="n">
-        <v>-3.727963203773992e-05</v>
-      </c>
-      <c r="N66" t="n">
-        <v>6.960522805901527e-06</v>
-      </c>
-      <c r="O66" t="n">
-        <v>5.235333031159406e-05</v>
-      </c>
-      <c r="P66" t="n">
-        <v>0.0002516062689377937</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>513.9297072050966</v>
-      </c>
-      <c r="R66" t="n">
-        <v>0.8312299999999999</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>1.001995557804768</v>
-      </c>
-      <c r="B67" t="n">
-        <v>18.11435925551057</v>
-      </c>
-      <c r="C67" t="n">
-        <v>9.662577560353936e-06</v>
-      </c>
-      <c r="D67" t="n">
-        <v>-0.002965945369654528</v>
-      </c>
-      <c r="E67" t="n">
-        <v>2.193837335624157e-06</v>
-      </c>
-      <c r="F67" t="n">
-        <v>0.001655298714490553</v>
-      </c>
-      <c r="G67" t="n">
-        <v>9.194054866734178e-08</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0.0001859867163759559</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0.02967298778708701</v>
-      </c>
-      <c r="J67" t="n">
-        <v>-2.343740790567056e-05</v>
-      </c>
-      <c r="K67" t="n">
-        <v>-0.0004653973283048278</v>
-      </c>
-      <c r="L67" t="n">
-        <v>0.0008356071418909631</v>
-      </c>
-      <c r="M67" t="n">
-        <v>-3.557726431530214e-05</v>
-      </c>
-      <c r="N67" t="n">
-        <v>6.190406607039097e-06</v>
-      </c>
-      <c r="O67" t="n">
-        <v>5.876927638568689e-05</v>
-      </c>
-      <c r="P67" t="n">
-        <v>0.0002434173824641532</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>514.4218120952457</v>
-      </c>
-      <c r="R67" t="n">
-        <v>0.84472</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>1.002020557804768</v>
-      </c>
-      <c r="B68" t="n">
-        <v>18.14133515769481</v>
-      </c>
-      <c r="C68" t="n">
-        <v>8.792711438496592e-06</v>
-      </c>
-      <c r="D68" t="n">
-        <v>-0.0005464913365634526</v>
-      </c>
-      <c r="E68" t="n">
-        <v>2.164836047019793e-06</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0.001509415393241959</v>
-      </c>
-      <c r="G68" t="n">
-        <v>-2.436570493927095e-07</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0.0001876617904666148</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0.02708927832802269</v>
-      </c>
-      <c r="J68" t="n">
-        <v>-2.937429350039991e-05</v>
-      </c>
-      <c r="K68" t="n">
-        <v>-0.0004291027833189852</v>
-      </c>
-      <c r="L68" t="n">
-        <v>0.0008391021715836958</v>
-      </c>
-      <c r="M68" t="n">
-        <v>-3.382259222536174e-05</v>
-      </c>
-      <c r="N68" t="n">
-        <v>5.894807590702629e-06</v>
-      </c>
-      <c r="O68" t="n">
-        <v>5.997054901600689e-05</v>
-      </c>
-      <c r="P68" t="n">
-        <v>0.0002364508349570416</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>514.8775104182264</v>
-      </c>
-      <c r="R68" t="n">
-        <v>0.8582</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>1.002038759559154</v>
-      </c>
-      <c r="B69" t="n">
-        <v>18.16611537524367</v>
-      </c>
-      <c r="C69" t="n">
-        <v>8.148885400109829e-06</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.001819914964160309</v>
-      </c>
-      <c r="E69" t="n">
-        <v>2.13485039213141e-06</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0.00136817651442617</v>
-      </c>
-      <c r="G69" t="n">
-        <v>-5.605333518049945e-07</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0.0001890136648227495</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0.02458392730967911</v>
-      </c>
-      <c r="J69" t="n">
-        <v>-3.437264424498303e-05</v>
-      </c>
-      <c r="K69" t="n">
-        <v>-0.0003925192894112373</v>
-      </c>
-      <c r="L69" t="n">
-        <v>0.0008443270553743691</v>
-      </c>
-      <c r="M69" t="n">
-        <v>-3.20696799818501e-05</v>
-      </c>
-      <c r="N69" t="n">
-        <v>6.044105896748638e-06</v>
-      </c>
-      <c r="O69" t="n">
-        <v>5.713302524794447e-05</v>
-      </c>
-      <c r="P69" t="n">
-        <v>0.0002296544303129842</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>515.2980301222154</v>
-      </c>
-      <c r="R69" t="n">
-        <v>0.87169</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>1.002056812303194</v>
-      </c>
-      <c r="B70" t="n">
-        <v>18.18861100177438</v>
-      </c>
-      <c r="C70" t="n">
-        <v>7.299282930192828e-06</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.004112431369217961</v>
-      </c>
-      <c r="E70" t="n">
-        <v>2.105165660436347e-06</v>
-      </c>
-      <c r="F70" t="n">
-        <v>0.001218317124104364</v>
-      </c>
-      <c r="G70" t="n">
-        <v>-7.37791968061181e-07</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0.0001901067731454241</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0.02191447736587506</v>
-      </c>
-      <c r="J70" t="n">
-        <v>-3.659065177266081e-05</v>
-      </c>
-      <c r="K70" t="n">
-        <v>-0.0003556896188944025</v>
-      </c>
-      <c r="L70" t="n">
-        <v>0.0008485635749362724</v>
-      </c>
-      <c r="M70" t="n">
-        <v>-3.02898160647992e-05</v>
-      </c>
-      <c r="N70" t="n">
-        <v>6.541723832154059e-06</v>
-      </c>
-      <c r="O70" t="n">
-        <v>5.210949027551296e-05</v>
-      </c>
-      <c r="P70" t="n">
-        <v>0.0002231231079270724</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>515.6795266673795</v>
-      </c>
-      <c r="R70" t="n">
-        <v>0.8851700000000001</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>1.002071059660369</v>
-      </c>
-      <c r="B71" t="n">
-        <v>18.20872936659669</v>
-      </c>
-      <c r="C71" t="n">
-        <v>4.89019146689293e-06</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.006305835099209026</v>
-      </c>
-      <c r="E71" t="n">
-        <v>2.081301769166751e-06</v>
-      </c>
-      <c r="F71" t="n">
-        <v>0.001071275474805752</v>
-      </c>
-      <c r="G71" t="n">
-        <v>-6.752199768893386e-07</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0.0001920663998622279</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0.01928747263941245</v>
-      </c>
-      <c r="J71" t="n">
-        <v>-3.464965306811907e-05</v>
-      </c>
-      <c r="K71" t="n">
-        <v>-0.0003184230165193355</v>
-      </c>
-      <c r="L71" t="n">
-        <v>0.0008602001632545795</v>
-      </c>
-      <c r="M71" t="n">
-        <v>-2.838328267393756e-05</v>
-      </c>
-      <c r="N71" t="n">
-        <v>7.220208089620975e-06</v>
-      </c>
-      <c r="O71" t="n">
-        <v>4.699338533682273e-05</v>
-      </c>
-      <c r="P71" t="n">
-        <v>0.0002180776174940193</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>516.0216334485286</v>
-      </c>
-      <c r="R71" t="n">
-        <v>0.89866</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>1.002083212438147</v>
-      </c>
-      <c r="B72" t="n">
-        <v>18.22643757497376</v>
-      </c>
-      <c r="C72" t="n">
-        <v>-1.175554440477143e-06</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.008372956539400116</v>
-      </c>
-      <c r="E72" t="n">
-        <v>2.054281869683424e-06</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0.0009253050147787338</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-4.709584204537766e-07</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0.0001927484430901059</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0.01667022512888145</v>
-      </c>
-      <c r="J72" t="n">
-        <v>-3.025623527078025e-05</v>
-      </c>
-      <c r="K72" t="n">
-        <v>-0.0002805948331350589</v>
-      </c>
-      <c r="L72" t="n">
-        <v>0.0008573983148085669</v>
-      </c>
-      <c r="M72" t="n">
-        <v>-2.639915007942689e-05</v>
-      </c>
-      <c r="N72" t="n">
-        <v>7.903206292040598e-06</v>
-      </c>
-      <c r="O72" t="n">
-        <v>4.138006066950942e-05</v>
-      </c>
-      <c r="P72" t="n">
-        <v>0.0002124111965741053</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>516.3228035786774</v>
-      </c>
-      <c r="R72" t="n">
-        <v>0.91217</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>1.002094407894737</v>
-      </c>
-      <c r="B73" t="n">
-        <v>18.24161738703954</v>
-      </c>
-      <c r="C73" t="n">
-        <v>-1.160415889282468e-05</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.01028566946095429</v>
-      </c>
-      <c r="E73" t="n">
-        <v>2.026100603972672e-06</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0.0007778248311363586</v>
-      </c>
-      <c r="G73" t="n">
-        <v>-2.251154064327508e-07</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0.000193831632985377</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0.01401718152879195</v>
-      </c>
-      <c r="J73" t="n">
-        <v>-2.513182325561046e-05</v>
-      </c>
-      <c r="K73" t="n">
-        <v>-0.0002420088926338125</v>
-      </c>
-      <c r="L73" t="n">
-        <v>0.0008617772278140148</v>
-      </c>
-      <c r="M73" t="n">
-        <v>-2.419688049581084e-05</v>
-      </c>
-      <c r="N73" t="n">
-        <v>8.526112724387089e-06</v>
-      </c>
-      <c r="O73" t="n">
-        <v>3.589816452137064e-05</v>
-      </c>
-      <c r="P73" t="n">
-        <v>0.0002079201563139245</v>
-      </c>
-      <c r="Q73" t="n">
-        <v>516.5808948914945</v>
-      </c>
-      <c r="R73" t="n">
-        <v>0.9256799999999999</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>1.002105445906433</v>
-      </c>
-      <c r="B74" t="n">
-        <v>18.25425276153347</v>
-      </c>
-      <c r="C74" t="n">
-        <v>-2.505649167478889e-05</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.01203709281822456</v>
-      </c>
-      <c r="E74" t="n">
-        <v>2.002258118162675e-06</v>
-      </c>
-      <c r="F74" t="n">
-        <v>0.0006377323917736167</v>
-      </c>
-      <c r="G74" t="n">
-        <v>1.102105085695023e-07</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0.0001942142205235511</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0.01149193408381598</v>
-      </c>
-      <c r="J74" t="n">
-        <v>-1.838966272289077e-05</v>
-      </c>
-      <c r="K74" t="n">
-        <v>-0.0002024953906929449</v>
-      </c>
-      <c r="L74" t="n">
-        <v>0.0008662700203366322</v>
-      </c>
-      <c r="M74" t="n">
-        <v>-2.186448732423339e-05</v>
-      </c>
-      <c r="N74" t="n">
-        <v>8.873132613616484e-06</v>
-      </c>
-      <c r="O74" t="n">
-        <v>3.081917057804144e-05</v>
-      </c>
-      <c r="P74" t="n">
-        <v>0.0002035600831870095</v>
-      </c>
-      <c r="Q74" t="n">
-        <v>516.7949540790217</v>
-      </c>
-      <c r="R74" t="n">
-        <v>0.93919</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>1.00211322537112</v>
-      </c>
-      <c r="B75" t="n">
-        <v>18.26431736392263</v>
-      </c>
-      <c r="C75" t="n">
-        <v>-3.934651911862074e-05</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.01363273380091343</v>
-      </c>
-      <c r="E75" t="n">
-        <v>1.985790008526203e-06</v>
-      </c>
-      <c r="F75" t="n">
-        <v>0.0004892207718337269</v>
-      </c>
-      <c r="G75" t="n">
-        <v>5.402223536324785e-07</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0.0001939680107365703</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0.008807669596178368</v>
-      </c>
-      <c r="J75" t="n">
-        <v>-9.955999691358061e-06</v>
-      </c>
-      <c r="K75" t="n">
-        <v>-0.0001618914088197912</v>
-      </c>
-      <c r="L75" t="n">
-        <v>0.0008694940517693807</v>
-      </c>
-      <c r="M75" t="n">
-        <v>-1.939870471163218e-05</v>
-      </c>
-      <c r="N75" t="n">
-        <v>8.833676358558878e-06</v>
-      </c>
-      <c r="O75" t="n">
-        <v>2.657292643215812e-05</v>
-      </c>
-      <c r="P75" t="n">
-        <v>0.0001995083186985024</v>
-      </c>
-      <c r="Q75" t="n">
-        <v>516.9658371978932</v>
-      </c>
-      <c r="R75" t="n">
-        <v>0.9527</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>1.002118478688709</v>
-      </c>
-      <c r="B76" t="n">
-        <v>18.27182450204928</v>
-      </c>
-      <c r="C76" t="n">
-        <v>-5.156976974519844e-05</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.01509048119610856</v>
-      </c>
-      <c r="E76" t="n">
-        <v>1.976431775364794e-06</v>
-      </c>
-      <c r="F76" t="n">
-        <v>0.0003409948551268837</v>
-      </c>
-      <c r="G76" t="n">
-        <v>1.030708131283738e-06</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0.0001942817731211967</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0.006124567311856741</v>
-      </c>
-      <c r="J76" t="n">
-        <v>-4.864080480737624e-07</v>
-      </c>
-      <c r="K76" t="n">
-        <v>-0.0001200833766031358</v>
-      </c>
-      <c r="L76" t="n">
-        <v>0.0008786737595435348</v>
-      </c>
-      <c r="M76" t="n">
-        <v>-1.675143436687003e-05</v>
-      </c>
-      <c r="N76" t="n">
-        <v>8.431702559762123e-06</v>
-      </c>
-      <c r="O76" t="n">
-        <v>2.381185635030864e-05</v>
-      </c>
-      <c r="P76" t="n">
-        <v>0.0001970821589727033</v>
-      </c>
-      <c r="Q76" t="n">
-        <v>517.0933522501441</v>
-      </c>
-      <c r="R76" t="n">
-        <v>0.96621</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>1.002122421839856</v>
-      </c>
-      <c r="B77" t="n">
-        <v>18.27678687459389</v>
-      </c>
-      <c r="C77" t="n">
-        <v>-5.967674375374904e-05</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.01641992764313693</v>
-      </c>
-      <c r="E77" t="n">
-        <v>1.968795064308114e-06</v>
-      </c>
-      <c r="F77" t="n">
-        <v>0.0001902499758820288</v>
-      </c>
-      <c r="G77" t="n">
-        <v>1.596190578188258e-06</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0.0001933961943035531</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0.003390902333197443</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1.046625265250914e-05</v>
-      </c>
-      <c r="K77" t="n">
-        <v>-7.687687249711038e-05</v>
-      </c>
-      <c r="L77" t="n">
-        <v>0.0008737263539011347</v>
-      </c>
-      <c r="M77" t="n">
-        <v>-1.393194130958852e-05</v>
-      </c>
-      <c r="N77" t="n">
-        <v>7.85224990522333e-06</v>
-      </c>
-      <c r="O77" t="n">
-        <v>1.817867165331821e-05</v>
-      </c>
-      <c r="P77" t="n">
-        <v>0.0001946473375482331</v>
-      </c>
-      <c r="Q77" t="n">
-        <v>517.1772915433493</v>
-      </c>
-      <c r="R77" t="n">
-        <v>0.97972</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>1.002124758209627</v>
-      </c>
-      <c r="B78" t="n">
-        <v>18.27918323899135</v>
-      </c>
-      <c r="C78" t="n">
-        <v>-6.327977317370632e-05</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.01761295126713416</v>
-      </c>
-      <c r="E78" t="n">
-        <v>1.964042776661606e-06</v>
-      </c>
-      <c r="F78" t="n">
-        <v>3.477191870332883e-05</v>
-      </c>
-      <c r="G78" t="n">
-        <v>2.238923807703554e-06</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0.0001932426652647511</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0.0005694398168937747</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2.300888768774676e-05</v>
-      </c>
-      <c r="K78" t="n">
-        <v>-3.225473577988329e-05</v>
-      </c>
-      <c r="L78" t="n">
-        <v>0.0008746617927475383</v>
-      </c>
-      <c r="M78" t="n">
-        <v>-1.097599702315752e-05</v>
-      </c>
-      <c r="N78" t="n">
-        <v>7.258388844926151e-06</v>
-      </c>
-      <c r="O78" t="n">
-        <v>1.036953343860586e-05</v>
-      </c>
-      <c r="P78" t="n">
-        <v>0.000194094561552894</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>517.2176068220979</v>
-      </c>
-      <c r="R78" t="n">
-        <v>0.99324</v>
+        <v>0.7909</v>
       </c>
     </row>
   </sheetData>
